--- a/LJM-QA.01-프로젝트모니터링도구-2분반-8조.xlsx
+++ b/LJM-QA.01-프로젝트모니터링도구-2분반-8조.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://o365deu-my.sharepoint.com/personal/ddoepsh_office_deu_ac_kr/Documents/문서&amp;대학교/23살 2021 (대2)/2학기/객체지향 프로그래밍Ⅱ (이종민)/과제/설계프로젝트/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\University\객체지향 프로그래밍Ⅱ (이종민)\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="241" documentId="13_ncr:1_{928E79BC-AC84-42E4-B924-0A0ADB8C98AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C94F61D-9CA9-4C81-8466-3BEBC131A8D6}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F00302CB-7A64-4B4C-8260-5F213C211013}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18636" yWindow="4368" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="기본 정보" sheetId="7" r:id="rId1"/>
@@ -23,16 +23,14 @@
     <sheet name="도구" sheetId="5" state="hidden" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">기능요구사항!$A$1:$I$42</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">기능요구사항!$A$1:$I$43</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -41,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="215">
   <si>
     <t>ID</t>
   </si>
@@ -218,9 +216,6 @@
     <t>SFR-100</t>
   </si>
   <si>
-    <t>SFR-102</t>
-  </si>
-  <si>
     <t>개발자</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -443,7 +438,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="맑은 고딕"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -453,7 +448,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="맑은 고딕"/>
         <family val="2"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -468,7 +463,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="맑은 고딕"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -478,7 +473,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="맑은 고딕"/>
         <family val="2"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -493,7 +488,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="맑은 고딕"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -503,7 +498,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="맑은 고딕"/>
         <family val="2"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -518,7 +513,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="맑은 고딕"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -528,7 +523,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="맑은 고딕"/>
         <family val="2"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -543,7 +538,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="맑은 고딕"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -553,7 +548,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="맑은 고딕"/>
         <family val="2"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -786,7 +781,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="맑은 고딕"/>
         <family val="2"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -796,9 +791,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>SFR-</t>
-    </r>
+    <t>사용자 : 직원(수업 담당자)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -807,19 +803,57 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t>202</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
+      <t xml:space="preserve">수업 담당자 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>UI</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>새 강좌를 등록한다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기존 강좌를 변경/삭제한다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>학생에게 수강료 청구서를 발송한다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>SFR-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
         <family val="2"/>
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t/>
-    </r>
+      <t>01</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -833,13 +867,13 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t>203</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
+      <t>302</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
         <family val="2"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -848,10 +882,9 @@
     </r>
   </si>
   <si>
-    <t>사용자 : 직원(수업 담당자)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
+    <r>
+      <t>SFR-</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -860,34 +893,7 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">수업 담당자 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>UI</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>새 강좌를 등록한다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>기존 강좌를 변경/삭제한다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>학생에게 수강료 청구서를 발송한다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>SFR-</t>
+      <t>303</t>
     </r>
     <r>
       <rPr>
@@ -896,20 +902,63 @@
         <rFont val="맑은 고딕"/>
         <family val="2"/>
         <charset val="129"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>SFR-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>304</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
         <family val="2"/>
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>01</t>
-    </r>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>등록된 강좌의 정보를 확인한다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록된 강좌를 신청한다 (수강 신청)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수강한 강좌를 변경/제거한다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수강했던 과목의 성적을 조회한다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>자신(학생)의 정보를 조회한다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>자신(학생)의 정보를 변경한다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SFR-101</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -924,19 +973,20 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t>302</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
         <family val="2"/>
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t/>
-    </r>
+      <t>01</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -950,13 +1000,13 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t>303</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
+      <t>402</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
         <family val="2"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -976,13 +1026,13 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t>304</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
+      <t>403</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
         <family val="2"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -991,34 +1041,6 @@
     </r>
   </si>
   <si>
-    <t>등록된 강좌의 정보를 확인한다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>등록된 강좌를 신청한다 (수강 신청)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>수강한 강좌를 변경/제거한다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>수강했던 과목의 성적을 조회한다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>자신(학생)의 정보를 조회한다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>자신(학생)의 정보를 변경한다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SFR-101</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>SFR-</t>
     </r>
@@ -1030,20 +1052,19 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
+      <t>404</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
         <family val="2"/>
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>01</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+      <t/>
+    </r>
   </si>
   <si>
     <r>
@@ -1057,13 +1078,13 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t>402</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
+      <t>405</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
         <family val="2"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -1083,13 +1104,13 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t>403</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
+      <t>406</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
         <family val="2"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -1098,30 +1119,118 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>SFR-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
+    <t>사용자 : 교수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <rFont val="맑은 고딕"/>
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t>404</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
+      <t>등록된</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>강좌의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정보를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>확인한다</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>SFR-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
         <family val="2"/>
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t/>
-    </r>
+      <t>01</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>담당한 강좌의 정보를 확인한다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>담당한 강좌의 학생의 성적을 관리한다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>각 학생의 정보를 조회한다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>자신(교수)의 정보를 조회한다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>자신(교수)의 정보를 변경한다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1135,13 +1244,13 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t>405</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
+      <t>502</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
         <family val="2"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -1161,13 +1270,13 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t>406</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
+      <t>503</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
         <family val="2"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -1176,71 +1285,56 @@
     </r>
   </si>
   <si>
-    <t>사용자 : 교수</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
+    <r>
+      <t>SFR-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="맑은 고딕"/>
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t>등록된</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
+      <t>504</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="맑은 고딕"/>
         <family val="2"/>
         <charset val="129"/>
-      </rPr>
-      <t>강좌의</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>SFR-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="맑은 고딕"/>
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t>정보를</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
+      <t>505</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="맑은 고딕"/>
         <family val="2"/>
         <charset val="129"/>
-      </rPr>
-      <t>확인한다</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
   </si>
   <si>
     <r>
@@ -1254,39 +1348,161 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
+      <t>506</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
         <family val="2"/>
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>01</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>담당한 강좌의 정보를 확인한다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>담당한 강좌의 학생의 성적을 관리한다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>각 학생의 정보를 조회한다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>자신(교수)의 정보를 조회한다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>자신(교수)의 정보를 변경한다</t>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>로그인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>실패</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>로그인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>실패</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>화면을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>보여준다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>.</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1295,25 +1511,28 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="맑은 고딕"/>
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t>502</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
         <family val="2"/>
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t/>
-    </r>
+      <t>00</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1321,25 +1540,28 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="맑은 고딕"/>
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t>503</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
         <family val="2"/>
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t/>
-    </r>
+      <t>00</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1347,51 +1569,181 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="맑은 고딕"/>
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t>504</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
         <family val="2"/>
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>SFR-</t>
-    </r>
-    <r>
-      <rPr>
+      <t>00</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>시스템</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="맑은 고딕"/>
         <family val="2"/>
         <charset val="129"/>
-      </rPr>
-      <t>505</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>로그인</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>SFR-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
         <family val="2"/>
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t/>
-    </r>
+      <t>00</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상</t>
+  </si>
+  <si>
+    <t>8조</t>
+  </si>
+  <si>
+    <t>대학정보시스템</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20183203 강준희</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20183145 박상현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20193116 손성배</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20183197 신종훈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">20173149 이영훈 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2분반</t>
+  </si>
+  <si>
+    <t>박상현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>21.10.06</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>21.10.13</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>분석</t>
+  </si>
+  <si>
+    <t>21.10.19</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SFR-103</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>직원, 학생, 교수 클래스 생성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>강준희, 신종훈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>21.10.26</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>21.10.09</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>학생들의 수강료를 계산한다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SFR-305</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>박상현</t>
+  </si>
+  <si>
+    <t>손성배, 이영훈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SFR-102</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SFR-104</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1405,160 +1757,7 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t>506</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>로그인</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>실패</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>시</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>로그인</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>실패</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>화면을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>보여준다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>.</t>
+      <t>202</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1568,218 +1767,14 @@
     </r>
     <r>
       <rPr>
-        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="맑은 고딕"/>
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>SFR-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>SFR-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>시스템</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>로그인</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>SFR-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>상</t>
-  </si>
-  <si>
-    <t>8조</t>
-  </si>
-  <si>
-    <t>대학정보시스템</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>20183203 강준희</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>20183145 박상현</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>20193116 손성배</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>20183197 신종훈</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">20173149 이영훈 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2분반</t>
-  </si>
-  <si>
-    <t>이영훈</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>박상현</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>21.10.06</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>21.10.13</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>분석</t>
-  </si>
-  <si>
-    <t>21.10.19</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SFR-103</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SFR-104</t>
-  </si>
-  <si>
-    <t>직원, 학생, 교수 클래스 생성</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>손성배</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>강준희, 신종훈</t>
+      <t>203</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1791,7 +1786,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1799,13 +1794,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="游ゴシック"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1814,14 +1809,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="游ゴシック"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1830,7 +1825,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1839,7 +1834,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1847,7 +1842,7 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1856,7 +1851,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="游ゴシック"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1864,7 +1859,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="游ゴシック"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1873,7 +1868,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
-      <name val="游ゴシック"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1881,7 +1876,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
-      <name val="游ゴシック"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1945,14 +1940,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Yu Gothic"/>
       <family val="2"/>
       <charset val="128"/>
@@ -1961,7 +1948,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1981,6 +1968,14 @@
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="11">
@@ -2111,7 +2106,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2236,16 +2231,16 @@
     <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2257,8 +2252,17 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2287,17 +2291,108 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="71">
+  <dxfs count="73">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -2367,72 +2462,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2644,26 +2673,6 @@
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2952,7 +2961,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
+          <a:endParaRPr lang="ko-KR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3041,6 +3050,12 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>123</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3132,6 +3147,12 @@
                 <c:pt idx="2">
                   <c:v>27</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3222,6 +3243,12 @@
                 <c:pt idx="2">
                   <c:v>4</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3285,7 +3312,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
+            <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1440183055"/>
@@ -3344,7 +3371,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
+            <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1440182223"/>
@@ -3386,7 +3413,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
+          <a:endParaRPr lang="ko-KR"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3418,7 +3445,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ja-JP"/>
+      <a:endParaRPr lang="ko-KR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4332,161 +4359,161 @@
       <selection activeCell="B6" sqref="B6:G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="2" max="2" width="9.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="B1" s="51" t="s">
-        <v>139</v>
-      </c>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
+        <v>64</v>
+      </c>
+      <c r="B1" s="54" t="s">
+        <v>138</v>
+      </c>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="B2" s="52" t="s">
-        <v>199</v>
-      </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
+        <v>65</v>
+      </c>
+      <c r="B2" s="55" t="s">
+        <v>196</v>
+      </c>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="B3" s="52" t="s">
-        <v>192</v>
-      </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
+        <v>110</v>
+      </c>
+      <c r="B3" s="55" t="s">
+        <v>189</v>
+      </c>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="B4" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="55" t="s">
+        <v>190</v>
+      </c>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="56" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="55" t="s">
+        <v>191</v>
+      </c>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="57"/>
+      <c r="B6" s="55" t="s">
+        <v>192</v>
+      </c>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="57"/>
+      <c r="B7" s="55" t="s">
         <v>193</v>
       </c>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="53" t="s">
-        <v>67</v>
-      </c>
-      <c r="B5" s="52" t="s">
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="57"/>
+      <c r="B8" s="55" t="s">
         <v>194</v>
       </c>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="54"/>
-      <c r="B6" s="52" t="s">
+      <c r="C8" s="55"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="57"/>
+      <c r="B9" s="55" t="s">
         <v>195</v>
       </c>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="54"/>
-      <c r="B7" s="52" t="s">
-        <v>196</v>
-      </c>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="54"/>
-      <c r="B8" s="52" t="s">
-        <v>197</v>
-      </c>
-      <c r="C8" s="52"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="52"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="54"/>
-      <c r="B9" s="52" t="s">
-        <v>198</v>
-      </c>
-      <c r="C9" s="52"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="52"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="55"/>
-      <c r="B10" s="52"/>
-      <c r="C10" s="52"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="52"/>
+      <c r="A10" s="58"/>
+      <c r="B10" s="55"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="50" t="s">
+      <c r="A13" s="53" t="s">
+        <v>124</v>
+      </c>
+      <c r="B13" s="53"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="53" t="s">
         <v>125</v>
       </c>
-      <c r="B13" s="50"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="50"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="50" t="s">
+      <c r="B14" s="53"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="53"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="53" t="s">
         <v>126</v>
       </c>
-      <c r="B14" s="50"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="50" t="s">
-        <v>127</v>
-      </c>
-      <c r="B15" s="50"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="50"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -4540,14 +4567,14 @@
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:I64"/>
+  <dimension ref="A1:I65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="8.59765625" style="1"/>
     <col min="2" max="2" width="46.8984375" style="2" customWidth="1"/>
@@ -4580,10 +4607,10 @@
         <v>17</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I1" s="8" t="s">
         <v>33</v>
@@ -4594,7 +4621,7 @@
         <v>45</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C2" s="43">
         <v>5</v>
@@ -4606,7 +4633,7 @@
         <v>11</v>
       </c>
       <c r="F2" s="43" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G2" s="43" t="b">
         <v>0</v>
@@ -4618,27 +4645,27 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="6" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B3" s="37" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C3" s="6">
         <v>2</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G3" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="50" t="s">
         <v>210</v>
       </c>
       <c r="I3" s="4" t="b">
@@ -4647,10 +4674,10 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="19" t="s">
-        <v>46</v>
+        <v>211</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C4" s="6">
         <v>1</v>
@@ -4658,28 +4685,28 @@
       <c r="D4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="48" t="s">
-        <v>204</v>
+      <c r="E4" s="19" t="s">
+        <v>200</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G4" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="50" t="s">
         <v>209</v>
       </c>
       <c r="I4" s="4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" ht="18">
       <c r="A5" s="19" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C5" s="6">
         <v>1</v>
@@ -4687,17 +4714,17 @@
       <c r="D5" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>96</v>
+      <c r="E5" s="19" t="s">
+        <v>200</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G5" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" s="60" t="s">
-        <v>200</v>
+        <v>1</v>
+      </c>
+      <c r="H5" s="50" t="s">
+        <v>210</v>
       </c>
       <c r="I5" s="4" t="b">
         <v>0</v>
@@ -4705,36 +4732,36 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="19" t="s">
-        <v>207</v>
-      </c>
-      <c r="B6" s="59" t="s">
-        <v>208</v>
+        <v>212</v>
+      </c>
+      <c r="B6" s="49" t="s">
+        <v>203</v>
       </c>
       <c r="C6" s="19">
         <v>3</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>96</v>
+        <v>200</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G6" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" s="60" t="s">
-        <v>201</v>
+        <v>1</v>
+      </c>
+      <c r="H6" s="50" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="41" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B7" s="44" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C7" s="43">
         <v>8</v>
@@ -4743,10 +4770,10 @@
         <v>5</v>
       </c>
       <c r="E7" s="43" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F7" s="43" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G7" s="43" t="b">
         <v>0</v>
@@ -4758,10 +4785,10 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B8" s="39" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C8" s="6">
         <v>2</v>
@@ -4769,51 +4796,55 @@
       <c r="D8" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="49" t="s">
-        <v>96</v>
+      <c r="E8" s="19" t="s">
+        <v>200</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="G8" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" s="6"/>
+        <v>134</v>
+      </c>
+      <c r="G8" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" s="50" t="s">
+        <v>209</v>
+      </c>
       <c r="I8" s="4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="19" t="s">
-        <v>148</v>
+        <v>213</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C9" s="19">
         <v>3</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>191</v>
-      </c>
-      <c r="E9" s="48" t="s">
-        <v>11</v>
+        <v>188</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>200</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G9" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9" s="19"/>
+        <v>1</v>
+      </c>
+      <c r="H9" s="50" t="s">
+        <v>204</v>
+      </c>
       <c r="I9" s="4"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="19" t="s">
-        <v>149</v>
+        <v>214</v>
       </c>
       <c r="B10" s="37" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C10" s="6">
         <v>3</v>
@@ -4821,38 +4852,40 @@
       <c r="D10" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="48" t="s">
-        <v>96</v>
+      <c r="E10" s="19" t="s">
+        <v>200</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G10" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>204</v>
+      </c>
       <c r="I10" s="4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="41" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B11" s="44" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C11" s="43">
         <v>13</v>
       </c>
       <c r="D11" s="43" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E11" s="47" t="s">
         <v>11</v>
       </c>
       <c r="F11" s="43" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G11" s="43" t="b">
         <v>0</v>
@@ -4864,10 +4897,10 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="19" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B12" s="39" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C12" s="19">
         <v>2</v>
@@ -4879,7 +4912,7 @@
         <v>11</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G12" s="19" t="b">
         <v>0</v>
@@ -4891,22 +4924,22 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="19" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B13" s="37" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C13" s="19">
         <v>3</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E13" s="48" t="s">
         <v>11</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G13" s="19" t="b">
         <v>0</v>
@@ -4916,22 +4949,22 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="19" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B14" s="37" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C14" s="19">
         <v>5</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E14" s="48" t="s">
         <v>11</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G14" s="19" t="b">
         <v>0</v>
@@ -4943,10 +4976,10 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="19" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B15" s="37" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C15" s="6">
         <v>2</v>
@@ -4958,7 +4991,7 @@
         <v>11</v>
       </c>
       <c r="F15" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G15" s="19" t="b">
         <v>0</v>
@@ -4969,79 +5002,77 @@
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="41" t="s">
+      <c r="A16" s="51" t="s">
+        <v>208</v>
+      </c>
+      <c r="B16" s="52" t="s">
+        <v>207</v>
+      </c>
+      <c r="C16" s="19">
+        <v>3</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="48" t="s">
+        <v>95</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="G16" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16" s="19"/>
+      <c r="I16" s="4"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="41" t="s">
+        <v>185</v>
+      </c>
+      <c r="B17" s="44" t="s">
+        <v>141</v>
+      </c>
+      <c r="C17" s="43">
+        <v>20</v>
+      </c>
+      <c r="D17" s="43" t="s">
         <v>188</v>
       </c>
-      <c r="B16" s="44" t="s">
-        <v>142</v>
-      </c>
-      <c r="C16" s="43">
-        <v>20</v>
-      </c>
-      <c r="D16" s="43" t="s">
-        <v>191</v>
-      </c>
-      <c r="E16" s="47" t="s">
+      <c r="E17" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="43" t="s">
-        <v>135</v>
-      </c>
-      <c r="G16" s="43" t="b">
+      <c r="F17" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="G17" s="43" t="b">
         <v>0</v>
       </c>
-      <c r="H16" s="43"/>
-      <c r="I16" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="B17" s="37" t="s">
-        <v>159</v>
-      </c>
-      <c r="C17" s="6">
-        <v>1</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="G17" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17" s="6"/>
+      <c r="H17" s="43"/>
       <c r="I17" s="4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="19" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B18" s="37" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C18" s="6">
+        <v>1</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>5</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>191</v>
       </c>
       <c r="E18" s="48" t="s">
         <v>11</v>
       </c>
       <c r="F18" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="G18" s="19" t="b">
+        <v>134</v>
+      </c>
+      <c r="G18" s="12" t="b">
         <v>0</v>
       </c>
       <c r="H18" s="6"/>
@@ -5051,22 +5082,22 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="19" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B19" s="37" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C19" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>36</v>
+        <v>188</v>
       </c>
       <c r="E19" s="48" t="s">
         <v>11</v>
       </c>
       <c r="F19" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G19" s="19" t="b">
         <v>0</v>
@@ -5078,13 +5109,13 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="19" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B20" s="37" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C20" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>36</v>
@@ -5093,7 +5124,7 @@
         <v>11</v>
       </c>
       <c r="F20" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G20" s="19" t="b">
         <v>0</v>
@@ -5105,22 +5136,22 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="19" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B21" s="37" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C21" s="6">
         <v>2</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="E21" s="48" t="s">
         <v>11</v>
       </c>
       <c r="F21" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G21" s="19" t="b">
         <v>0</v>
@@ -5130,24 +5161,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15" customHeight="1">
+    <row r="22" spans="1:9">
       <c r="A22" s="19" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B22" s="37" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C22" s="6">
+        <v>2</v>
+      </c>
+      <c r="D22" s="6" t="s">
         <v>5</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>191</v>
       </c>
       <c r="E22" s="48" t="s">
         <v>11</v>
       </c>
       <c r="F22" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G22" s="19" t="b">
         <v>0</v>
@@ -5157,66 +5188,66 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="41" t="s">
-        <v>190</v>
-      </c>
-      <c r="B23" s="42" t="s">
-        <v>172</v>
-      </c>
-      <c r="C23" s="43">
-        <v>13</v>
-      </c>
-      <c r="D23" s="43" t="s">
+    <row r="23" spans="1:9" ht="15" customHeight="1">
+      <c r="A23" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="B23" s="37" t="s">
+        <v>161</v>
+      </c>
+      <c r="C23" s="6">
         <v>5</v>
       </c>
-      <c r="E23" s="47" t="s">
+      <c r="D23" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="E23" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="F23" s="43" t="s">
-        <v>135</v>
-      </c>
-      <c r="G23" s="43" t="b">
+      <c r="F23" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="G23" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="H23" s="43"/>
+      <c r="H23" s="6"/>
       <c r="I23" s="4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15" customHeight="1">
-      <c r="A24" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="B24" s="40" t="s">
-        <v>173</v>
-      </c>
-      <c r="C24" s="6">
-        <v>2</v>
-      </c>
-      <c r="D24" s="6" t="s">
+    <row r="24" spans="1:9">
+      <c r="A24" s="41" t="s">
+        <v>187</v>
+      </c>
+      <c r="B24" s="42" t="s">
+        <v>169</v>
+      </c>
+      <c r="C24" s="43">
+        <v>13</v>
+      </c>
+      <c r="D24" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="E24" s="48" t="s">
+      <c r="E24" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="F24" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="G24" s="12" t="b">
+      <c r="F24" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="G24" s="43" t="b">
         <v>0</v>
       </c>
-      <c r="H24" s="6"/>
+      <c r="H24" s="43"/>
       <c r="I24" s="4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="19" t="s">
-        <v>180</v>
-      </c>
-      <c r="B25" s="37" t="s">
-        <v>175</v>
+    <row r="25" spans="1:9" ht="15" customHeight="1">
+      <c r="A25" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="B25" s="40" t="s">
+        <v>170</v>
       </c>
       <c r="C25" s="6">
         <v>2</v>
@@ -5228,9 +5259,9 @@
         <v>11</v>
       </c>
       <c r="F25" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="G25" s="19" t="b">
+        <v>134</v>
+      </c>
+      <c r="G25" s="12" t="b">
         <v>0</v>
       </c>
       <c r="H25" s="6"/>
@@ -5238,24 +5269,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15" customHeight="1">
+    <row r="26" spans="1:9">
       <c r="A26" s="19" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B26" s="37" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C26" s="6">
+        <v>2</v>
+      </c>
+      <c r="D26" s="6" t="s">
         <v>5</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>191</v>
       </c>
       <c r="E26" s="48" t="s">
         <v>11</v>
       </c>
       <c r="F26" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G26" s="19" t="b">
         <v>0</v>
@@ -5267,22 +5298,22 @@
     </row>
     <row r="27" spans="1:9" ht="15" customHeight="1">
       <c r="A27" s="19" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B27" s="37" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C27" s="6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>5</v>
+        <v>188</v>
       </c>
       <c r="E27" s="48" t="s">
         <v>11</v>
       </c>
       <c r="F27" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G27" s="19" t="b">
         <v>0</v>
@@ -5292,12 +5323,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" ht="15" customHeight="1">
       <c r="A28" s="19" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B28" s="37" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C28" s="6">
         <v>2</v>
@@ -5309,7 +5340,7 @@
         <v>11</v>
       </c>
       <c r="F28" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G28" s="19" t="b">
         <v>0</v>
@@ -5321,22 +5352,22 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="19" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B29" s="37" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C29" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>191</v>
+        <v>5</v>
       </c>
       <c r="E29" s="48" t="s">
         <v>11</v>
       </c>
       <c r="F29" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G29" s="19" t="b">
         <v>0</v>
@@ -5346,14 +5377,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15" customHeight="1">
-      <c r="A30" s="6"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="12"/>
+    <row r="30" spans="1:9">
+      <c r="A30" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="B30" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="C30" s="6">
+        <v>3</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="E30" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="G30" s="19" t="b">
+        <v>0</v>
+      </c>
       <c r="H30" s="6"/>
       <c r="I30" s="4" t="b">
         <v>0</v>
@@ -5398,7 +5443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" ht="15" customHeight="1">
       <c r="A34" s="6"/>
       <c r="B34" s="5"/>
       <c r="C34" s="6"/>
@@ -5420,7 +5465,9 @@
       <c r="F35" s="6"/>
       <c r="G35" s="12"/>
       <c r="H35" s="6"/>
-      <c r="I35" s="4"/>
+      <c r="I35" s="4" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="6"/>
@@ -5588,164 +5635,175 @@
       <c r="I50" s="4"/>
     </row>
     <row r="51" spans="1:9">
-      <c r="B51" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="C51" s="25">
-        <f>SUM(C2:C50)</f>
-        <v>120</v>
-      </c>
-      <c r="D51" s="20" t="s">
+      <c r="A51" s="6"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="4"/>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="B52" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="C52" s="25">
+        <f>SUM(C2:C51)</f>
+        <v>123</v>
+      </c>
+      <c r="D52" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="E52" s="20">
+        <f>SUMIF(E2:E51, "완료", C2:C51)</f>
+        <v>0</v>
+      </c>
+      <c r="F52" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="E51" s="20">
-        <f>SUMIF(E2:E50, "완료", C2:C50)</f>
+      <c r="G52" s="22">
+        <f>SUMIF(G2:G51,TRUE,C2:C51)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="31.2" customHeight="1">
+      <c r="B53" s="16"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="E53" s="23">
+        <f>SUMIFS(C2:C51, E2:E51, "완료", G2:G51, TRUE)</f>
         <v>0</v>
       </c>
-      <c r="F51" s="21" t="s">
+      <c r="F53" s="14"/>
+      <c r="G53" s="13"/>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="B54" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="C54" s="25">
+        <f>COUNTA(A2:A51)-COUNTIF(C2:C51, 0)-COUNTIF(C2:C51, -1)</f>
+        <v>29</v>
+      </c>
+      <c r="D54" s="13"/>
+      <c r="E54" s="13"/>
+      <c r="F54" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="G51" s="22">
-        <f>SUMIF(G2:G50,TRUE,C2:C50)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="31.2" customHeight="1">
-      <c r="B52" s="16"/>
-      <c r="C52" s="13"/>
-      <c r="D52" s="30" t="s">
-        <v>110</v>
-      </c>
-      <c r="E52" s="23">
-        <f>SUMIFS(C2:C50, E2:E50, "완료", G2:G50, TRUE)</f>
-        <v>0</v>
-      </c>
-      <c r="F52" s="14"/>
-      <c r="G52" s="13"/>
-    </row>
-    <row r="53" spans="1:9">
-      <c r="B53" s="36" t="s">
-        <v>134</v>
-      </c>
-      <c r="C53" s="25">
-        <f>COUNTA(A2:A50)-COUNTIF(C2:C50, 0)-COUNTIF(C2:C50, -1)</f>
-        <v>28</v>
-      </c>
-      <c r="D53" s="13"/>
-      <c r="E53" s="13"/>
-      <c r="F53" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="G53" s="25">
-        <f>G51+E51-E52</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
-      <c r="A54" s="56" t="s">
+      <c r="G54" s="25">
+        <f>G52+E52-E53</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="B54" s="56"/>
-      <c r="C54" s="56"/>
-      <c r="D54" s="56"/>
-      <c r="E54" s="56"/>
-      <c r="F54" s="56"/>
-      <c r="G54" s="56"/>
-      <c r="H54" s="56"/>
-      <c r="I54" s="56"/>
-    </row>
-    <row r="55" spans="1:9">
-      <c r="A55" s="57" t="s">
+      <c r="B55" s="59"/>
+      <c r="C55" s="59"/>
+      <c r="D55" s="59"/>
+      <c r="E55" s="59"/>
+      <c r="F55" s="59"/>
+      <c r="G55" s="59"/>
+      <c r="H55" s="59"/>
+      <c r="I55" s="59"/>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="B55" s="57"/>
-      <c r="C55" s="57"/>
-      <c r="D55" s="57"/>
-      <c r="E55" s="57"/>
-      <c r="F55" s="57"/>
-      <c r="G55" s="57"/>
-      <c r="H55" s="57"/>
-      <c r="I55" s="57"/>
-    </row>
-    <row r="57" spans="1:9">
-      <c r="B57" s="17" t="s">
-        <v>102</v>
-      </c>
+      <c r="B56" s="60"/>
+      <c r="C56" s="60"/>
+      <c r="D56" s="60"/>
+      <c r="E56" s="60"/>
+      <c r="F56" s="60"/>
+      <c r="G56" s="60"/>
+      <c r="H56" s="60"/>
+      <c r="I56" s="60"/>
     </row>
     <row r="58" spans="1:9">
       <c r="B58" s="17" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="B59" s="17" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="60" spans="1:9">
       <c r="B60" s="17" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="B61" s="17" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="B62" s="29"/>
+      <c r="B62" s="17" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="B63" s="27" t="s">
+      <c r="B63" s="29"/>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="B64" s="27" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" ht="15" customHeight="1">
+      <c r="B65" s="28" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="15" customHeight="1">
-      <c r="B64" s="28" t="s">
-        <v>109</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:I42" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A1:I43" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="2">
-    <mergeCell ref="A54:I54"/>
     <mergeCell ref="A55:I55"/>
+    <mergeCell ref="A56:I56"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="A8:E8 A10:D10 C9:D9 A8:A10 B15:D15 H15:I15 G8:I10 B17:I22 A24:I50 A2:I3 A6 A4:F5 H4:I5 G4:G6">
-    <cfRule type="expression" dxfId="70" priority="86">
+  <conditionalFormatting sqref="A8:D8 A10:D10 C9:D9 A8:A10 B18:I23 A25:I51 A2:I3 A6 A4:F5 B14:D15 A13:A15 C16:D16 E12:F16 G13:I16 H4:I5 G3:G6 G8:I10 E3:E6">
+    <cfRule type="expression" dxfId="72" priority="93">
       <formula>$C2=""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="87">
+    <cfRule type="expression" dxfId="71" priority="94">
       <formula>$C2=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="88">
+    <cfRule type="expression" dxfId="70" priority="95">
       <formula>$C2=-1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I8:I10 I15 I17:I22 I24:I50 I2:I5">
-    <cfRule type="cellIs" dxfId="67" priority="69" operator="equal">
+  <conditionalFormatting sqref="I8:I10 I15:I16 I18:I23 I25:I51 I2:I5">
+    <cfRule type="cellIs" dxfId="69" priority="76" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:I7">
-    <cfRule type="expression" dxfId="66" priority="59">
+    <cfRule type="expression" dxfId="68" priority="66">
       <formula>$C7=""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="65" priority="60">
+    <cfRule type="expression" dxfId="67" priority="67">
       <formula>$C7=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="61">
+    <cfRule type="expression" dxfId="66" priority="68">
       <formula>$C7=-1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="63" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="65" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7">
-    <cfRule type="dataBar" priority="62">
+    <cfRule type="dataBar" priority="69">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5759,13 +5817,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="62" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="70"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule type="cellIs" dxfId="61" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="71" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="65">
+    <cfRule type="dataBar" priority="72">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5779,34 +5837,34 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="expression" dxfId="60" priority="256">
+    <cfRule type="expression" dxfId="62" priority="263">
       <formula>#REF!=""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="59" priority="257">
+    <cfRule type="expression" dxfId="61" priority="264">
       <formula>#REF!=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="258">
+    <cfRule type="expression" dxfId="60" priority="265">
       <formula>#REF!=-1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:D11 F11:I11">
-    <cfRule type="expression" dxfId="57" priority="51">
+    <cfRule type="expression" dxfId="59" priority="58">
       <formula>$C11=""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="52">
+    <cfRule type="expression" dxfId="58" priority="59">
       <formula>$C11=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="53">
+    <cfRule type="expression" dxfId="57" priority="60">
       <formula>$C11=-1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="54" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="57" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="dataBar" priority="54">
+    <cfRule type="dataBar" priority="61">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5820,13 +5878,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="53" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="62"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="cellIs" dxfId="52" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="63" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="57">
+    <cfRule type="dataBar" priority="64">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5839,24 +5897,24 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A12:D12 B14:D14 C13:D13 A13:A15 G12:I12 H13:I14 G13:G15">
-    <cfRule type="expression" dxfId="51" priority="40">
+  <conditionalFormatting sqref="A12:D12 C13:D13 G12:I12">
+    <cfRule type="expression" dxfId="53" priority="47">
       <formula>$C12=""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="41">
+    <cfRule type="expression" dxfId="52" priority="48">
       <formula>$C12=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="42">
+    <cfRule type="expression" dxfId="51" priority="49">
       <formula>$C12=-1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I12:I14">
-    <cfRule type="cellIs" dxfId="48" priority="39" operator="equal">
+  <conditionalFormatting sqref="I12:I16">
+    <cfRule type="cellIs" dxfId="50" priority="46" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12:C14">
-    <cfRule type="dataBar" priority="43">
+    <cfRule type="dataBar" priority="50">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5869,14 +5927,228 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A12:A15">
-    <cfRule type="duplicateValues" dxfId="47" priority="44"/>
+  <conditionalFormatting sqref="B13">
+    <cfRule type="expression" dxfId="49" priority="54">
+      <formula>#REF!=""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="48" priority="55">
+      <formula>#REF!=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="47" priority="56">
+      <formula>#REF!=-1</formula>
+    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G12:G15">
-    <cfRule type="cellIs" dxfId="46" priority="45" operator="equal">
+  <conditionalFormatting sqref="A17:D17 F17:I17">
+    <cfRule type="expression" dxfId="46" priority="39">
+      <formula>$C17=""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="45" priority="40">
+      <formula>$C17=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="44" priority="41">
+      <formula>$C17=-1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I17">
+    <cfRule type="cellIs" dxfId="43" priority="38" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="46">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17">
+    <cfRule type="dataBar" priority="42">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{D48B238B-57E3-4056-8A54-8209954CA86A}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A17">
+    <cfRule type="duplicateValues" dxfId="42" priority="43"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G17">
+    <cfRule type="cellIs" dxfId="41" priority="44" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="dataBar" priority="45">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{971392BE-A197-4FAB-970A-A24FC38D6B6A}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A18:A23">
+    <cfRule type="expression" dxfId="40" priority="34">
+      <formula>$C18=""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="39" priority="35">
+      <formula>$C18=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="38" priority="36">
+      <formula>$C18=-1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A18:A23">
+    <cfRule type="duplicateValues" dxfId="37" priority="37"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A24:D24 F24:I24">
+    <cfRule type="expression" dxfId="36" priority="27">
+      <formula>$C24=""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="35" priority="28">
+      <formula>$C24=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="34" priority="29">
+      <formula>$C24=-1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I24">
+    <cfRule type="cellIs" dxfId="33" priority="26" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C24">
+    <cfRule type="dataBar" priority="30">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{94E884A5-A9A4-47FE-A6C2-3B5556818733}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A24">
+    <cfRule type="duplicateValues" dxfId="32" priority="31"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G24">
+    <cfRule type="cellIs" dxfId="31" priority="32" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="dataBar" priority="33">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{283EC6DE-4EF4-443A-BA0B-43A447604A3A}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E24 E17 E11">
+    <cfRule type="expression" dxfId="27" priority="20">
+      <formula>$C11=""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="21">
+      <formula>$C11=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="25" priority="22">
+      <formula>$C11=-1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F8:F10">
+    <cfRule type="expression" dxfId="24" priority="17">
+      <formula>$C8=""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="23" priority="18">
+      <formula>$C8=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="19">
+      <formula>$C8=-1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C18:C23 C2:C5 C15:C16 C8:C10 C25:C51">
+    <cfRule type="dataBar" priority="274">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{FEFB8DED-7A05-47F3-A26B-D82B85A610CE}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A25:A51 A8:A10 A2:A6">
+    <cfRule type="duplicateValues" dxfId="21" priority="280"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G18:G23 G25:G51 G2:G6 G8:G10">
+    <cfRule type="cellIs" dxfId="20" priority="284" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="dataBar" priority="285">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{9FA1081B-1BCC-4393-A4D4-E2D4E0F10E5F}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6">
+    <cfRule type="expression" dxfId="19" priority="13">
+      <formula>$C6=""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="14">
+      <formula>$C6=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="17" priority="15">
+      <formula>$C6=-1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6">
+    <cfRule type="dataBar" priority="16">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{A6CE1503-FB01-48A5-9A32-D5A4CD6AF044}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6:F6 H6">
+    <cfRule type="expression" dxfId="16" priority="8">
+      <formula>$C6=""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="15" priority="9">
+      <formula>$C6=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="10">
+      <formula>$C6=-1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G12:G16">
+    <cfRule type="cellIs" dxfId="13" priority="313" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="dataBar" priority="314">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5889,232 +6161,18 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B13">
-    <cfRule type="expression" dxfId="45" priority="47">
-      <formula>#REF!=""</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="44" priority="48">
-      <formula>#REF!=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="43" priority="49">
-      <formula>#REF!=-1</formula>
-    </cfRule>
+  <conditionalFormatting sqref="A12:A15">
+    <cfRule type="duplicateValues" dxfId="12" priority="330"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A16:D16 F16:I16">
-    <cfRule type="expression" dxfId="42" priority="32">
-      <formula>$C16=""</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="41" priority="33">
-      <formula>$C16=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="40" priority="34">
-      <formula>$C16=-1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I16">
-    <cfRule type="cellIs" dxfId="39" priority="31" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C16">
-    <cfRule type="dataBar" priority="35">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{D48B238B-57E3-4056-8A54-8209954CA86A}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A16">
-    <cfRule type="duplicateValues" dxfId="38" priority="36"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G16">
-    <cfRule type="cellIs" dxfId="37" priority="37" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-    <cfRule type="dataBar" priority="38">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFB628"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{971392BE-A197-4FAB-970A-A24FC38D6B6A}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A17:A22">
-    <cfRule type="expression" dxfId="36" priority="27">
-      <formula>$C17=""</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="35" priority="28">
-      <formula>$C17=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="34" priority="29">
-      <formula>$C17=-1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A17:A22">
-    <cfRule type="duplicateValues" dxfId="33" priority="30"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A23:D23 F23:I23">
-    <cfRule type="expression" dxfId="32" priority="20">
-      <formula>$C23=""</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="31" priority="21">
-      <formula>$C23=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="30" priority="22">
-      <formula>$C23=-1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I23">
-    <cfRule type="cellIs" dxfId="29" priority="19" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C23">
-    <cfRule type="dataBar" priority="23">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{94E884A5-A9A4-47FE-A6C2-3B5556818733}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A23">
-    <cfRule type="duplicateValues" dxfId="28" priority="24"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G23">
-    <cfRule type="cellIs" dxfId="27" priority="25" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-    <cfRule type="dataBar" priority="26">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFB628"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{283EC6DE-4EF4-443A-BA0B-43A447604A3A}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E12:E15 E9:E10">
-    <cfRule type="expression" dxfId="26" priority="16">
-      <formula>$C9=""</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="25" priority="17">
-      <formula>$C9=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="24" priority="18">
-      <formula>$C9=-1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E23 E16 E11">
-    <cfRule type="expression" dxfId="23" priority="13">
-      <formula>$C11=""</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="22" priority="14">
-      <formula>$C11=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="21" priority="15">
-      <formula>$C11=-1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F12:F15 F8:F10">
-    <cfRule type="expression" dxfId="20" priority="10">
+  <conditionalFormatting sqref="E8:E10">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>$C8=""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="11">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>$C8=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="12">
+    <cfRule type="expression" dxfId="0" priority="3">
       <formula>$C8=-1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C5 C8:C10 C15 C17:C22 C24:C50">
-    <cfRule type="dataBar" priority="267">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{FEFB8DED-7A05-47F3-A26B-D82B85A610CE}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A8:A10 A24:A50 A2:A6">
-    <cfRule type="duplicateValues" dxfId="8" priority="273"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G8:G10 G17:G22 G24:G50 G2:G6">
-    <cfRule type="cellIs" dxfId="7" priority="277" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-    <cfRule type="dataBar" priority="278">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFB628"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9FA1081B-1BCC-4393-A4D4-E2D4E0F10E5F}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C6">
-    <cfRule type="expression" dxfId="6" priority="6">
-      <formula>$C6=""</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="5" priority="7">
-      <formula>$C6=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="8">
-      <formula>$C6=-1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C6">
-    <cfRule type="dataBar" priority="9">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{A6CE1503-FB01-48A5-9A32-D5A4CD6AF044}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6:F6 H6">
-    <cfRule type="expression" dxfId="3" priority="1">
-      <formula>$C6=""</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="2">
-      <formula>$C6=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="3">
-      <formula>$C6=-1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6188,19 +6246,6 @@
           <xm:sqref>C12:C14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{0849FD60-15E4-40E1-929A-966625B1D37D}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FFFFB628"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>G12:G15</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{D48B238B-57E3-4056-8A54-8209954CA86A}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
@@ -6211,7 +6256,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C16</xm:sqref>
+          <xm:sqref>C17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{971392BE-A197-4FAB-970A-A24FC38D6B6A}">
@@ -6224,7 +6269,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G16</xm:sqref>
+          <xm:sqref>G17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{94E884A5-A9A4-47FE-A6C2-3B5556818733}">
@@ -6237,7 +6282,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C23</xm:sqref>
+          <xm:sqref>C24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{283EC6DE-4EF4-443A-BA0B-43A447604A3A}">
@@ -6250,7 +6295,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G23</xm:sqref>
+          <xm:sqref>G24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{FEFB8DED-7A05-47F3-A26B-D82B85A610CE}">
@@ -6263,7 +6308,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C2:C5 C8:C10 C15 C17:C22 C24:C50</xm:sqref>
+          <xm:sqref>C18:C23 C2:C5 C15:C16 C8:C10 C25:C51</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{9FA1081B-1BCC-4393-A4D4-E2D4E0F10E5F}">
@@ -6276,7 +6321,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G8:G10 G17:G22 G24:G50 G2:G6</xm:sqref>
+          <xm:sqref>G18:G23 G25:G51 G2:G6 G8:G10</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{A6CE1503-FB01-48A5-9A32-D5A4CD6AF044}">
@@ -6291,6 +6336,19 @@
           </x14:cfRule>
           <xm:sqref>C6</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{0849FD60-15E4-40E1-929A-966625B1D37D}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFFFB628"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G12:G16</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -6299,37 +6357,37 @@
           <x14:formula1>
             <xm:f>도구!$C$2:$C$4</xm:f>
           </x14:formula1>
-          <xm:sqref>D56</xm:sqref>
+          <xm:sqref>D57</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="반복 대상" prompt="이번 반복 주기에 완료하려는 요구사항이면 TRUE를, 아니면 FALSE를 선택하세요." xr:uid="{00000000-0002-0000-0100-000002000000}">
+          <x14:formula1>
+            <xm:f>도구!$I$2:$I$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>I2:I5 I7:I51</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="개발 단계" prompt="현재 진행중인 단계를 의미합니다." xr:uid="{00000000-0002-0000-0100-000003000000}">
+          <x14:formula1>
+            <xm:f>도구!$E$2:$E$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>E2:E51</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="우선순위" prompt="상, 중, 하로 선택하세요." xr:uid="{00000000-0002-0000-0100-000004000000}">
+          <x14:formula1>
+            <xm:f>도구!$C$2:$C$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>D2:D51</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="반복 대상" prompt="이번 주에 개발하려는 기능 요구사항을 TRUE로 선택하면 됩니다. 스크럼처럼 반복 주기를 2주로 하는 경우 2주간 반복 대상을 동일하게 유지하면 됩니다._x000a_" xr:uid="{00000000-0002-0000-0100-000005000000}">
+          <x14:formula1>
+            <xm:f>도구!$I$2:$I$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>G2:G51</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="추정치(일)" prompt="기능 요구사항을 완료하는데 필요한 일량을 일(day) 단위로 선택하세요. -1과 0은 각각 삭제된 요구사항과 다른 요구사항으로 재정의돤 것을 의미합니다." xr:uid="{00000000-0002-0000-0100-000001000000}">
           <x14:formula1>
             <xm:f>도구!$A$2:$A$13</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C50</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="반복 대상" prompt="이번 반복 주기에 완료하려는 요구사항이면 TRUE를, 아니면 FALSE를 선택하세요." xr:uid="{00000000-0002-0000-0100-000002000000}">
-          <x14:formula1>
-            <xm:f>도구!$I$2:$I$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>I7:I50 I2:I5</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="개발 단계" prompt="현재 진행중인 단계를 의미합니다." xr:uid="{00000000-0002-0000-0100-000003000000}">
-          <x14:formula1>
-            <xm:f>도구!$E$2:$E$7</xm:f>
-          </x14:formula1>
-          <xm:sqref>E2:E50</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="우선순위" prompt="상, 중, 하로 선택하세요." xr:uid="{00000000-0002-0000-0100-000004000000}">
-          <x14:formula1>
-            <xm:f>도구!$C$2:$C$4</xm:f>
-          </x14:formula1>
-          <xm:sqref>D2:D50</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="반복 대상" prompt="이번 주에 개발하려는 기능 요구사항을 TRUE로 선택하면 됩니다. 스크럼처럼 반복 주기를 2주로 하는 경우 2주간 반복 대상을 동일하게 유지하면 됩니다._x000a_" xr:uid="{00000000-0002-0000-0100-000005000000}">
-          <x14:formula1>
-            <xm:f>도구!$I$2:$I$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>G2:G50</xm:sqref>
+          <xm:sqref>C2:C51</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -6345,10 +6403,10 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B5" sqref="B5:E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="2" max="2" width="13.69921875" customWidth="1"/>
     <col min="3" max="3" width="15.59765625" customWidth="1"/>
@@ -6358,19 +6416,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="15" t="s">
-        <v>95</v>
-      </c>
       <c r="C1" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D1" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" s="15" t="s">
         <v>100</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -6387,7 +6445,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -6404,7 +6462,7 @@
         <v>3</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -6421,26 +6479,42 @@
         <v>4</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="12">
         <v>4</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
+      <c r="B5" s="19">
+        <v>117</v>
+      </c>
+      <c r="C5" s="19">
+        <v>27</v>
+      </c>
+      <c r="D5" s="19">
+        <v>4</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="12">
         <v>5</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
+      <c r="B6" s="12">
+        <v>123</v>
+      </c>
+      <c r="C6" s="19">
+        <v>29</v>
+      </c>
+      <c r="D6" s="12">
+        <v>5</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="12">
@@ -6487,9 +6561,9 @@
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
     </row>
-    <row r="13" spans="1:5" ht="26.4">
+    <row r="13" spans="1:5" ht="25.2">
       <c r="A13" s="18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -6508,7 +6582,7 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="2" max="2" width="18.19921875" customWidth="1"/>
     <col min="3" max="3" width="33.3984375" customWidth="1"/>
@@ -6535,7 +6609,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -6544,7 +6618,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -6553,7 +6627,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -6562,7 +6636,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -6571,7 +6645,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -6592,7 +6666,7 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="2" max="2" width="18.19921875" customWidth="1"/>
     <col min="3" max="3" width="33.3984375" customWidth="1"/>
@@ -6625,7 +6699,7 @@
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -6663,7 +6737,7 @@
       <selection activeCell="B2" sqref="B2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="2" max="2" width="21.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.19921875" customWidth="1"/>
@@ -6682,7 +6756,7 @@
         <v>19</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>28</v>
@@ -6693,16 +6767,16 @@
         <v>37</v>
       </c>
       <c r="B2" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>122</v>
-      </c>
       <c r="D2" s="31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -6762,10 +6836,10 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="E2">
-    <cfRule type="expression" dxfId="17" priority="1">
+    <cfRule type="expression" dxfId="11" priority="1">
       <formula>$C2="failed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="2">
+    <cfRule type="expression" dxfId="10" priority="2">
       <formula>$C2="success"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6786,7 +6860,7 @@
       <selection pane="bottomLeft" activeCell="B2" sqref="B2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="2" max="2" width="35.19921875" customWidth="1"/>
     <col min="3" max="4" width="20.69921875" customWidth="1"/>
@@ -6796,90 +6870,90 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F2" s="31"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F3" s="31"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F4" s="31"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E5" s="32"/>
       <c r="F5" s="31"/>
@@ -7013,14 +7087,14 @@
       <c r="F21" s="31"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="58" t="s">
-        <v>51</v>
-      </c>
-      <c r="B23" s="58"/>
-      <c r="C23" s="58"/>
-      <c r="D23" s="58"/>
-      <c r="E23" s="58"/>
-      <c r="F23" s="58"/>
+      <c r="A23" s="61" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" s="61"/>
+      <c r="C23" s="61"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7028,13 +7102,13 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A2:A21 A23">
-    <cfRule type="duplicateValues" dxfId="15" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23 A6:F21 A2:A5 C2:C5 E2:F5">
-    <cfRule type="expression" dxfId="14" priority="9">
+    <cfRule type="expression" dxfId="8" priority="9">
       <formula>$C2="failed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="10">
+    <cfRule type="expression" dxfId="7" priority="10">
       <formula>$C2="success"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7081,18 +7155,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B5">
-    <cfRule type="expression" dxfId="12" priority="3">
+    <cfRule type="expression" dxfId="6" priority="3">
       <formula>$C2="failed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="4">
+    <cfRule type="expression" dxfId="5" priority="4">
       <formula>$C2="success"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D5">
-    <cfRule type="expression" dxfId="10" priority="1">
+    <cfRule type="expression" dxfId="4" priority="1">
       <formula>$C2="failed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="2">
+    <cfRule type="expression" dxfId="3" priority="2">
       <formula>$C2="success"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7158,7 +7232,7 @@
       <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="15" max="15" width="20.3984375" bestFit="1" customWidth="1"/>
   </cols>
@@ -7180,13 +7254,13 @@
         <v>33</v>
       </c>
       <c r="K1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O1" s="35" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -7200,19 +7274,19 @@
         <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I2" t="b">
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O2" s="35" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -7226,19 +7300,19 @@
         <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I3" t="b">
         <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O3" s="35" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -7252,13 +7326,13 @@
         <v>13</v>
       </c>
       <c r="K4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O4" s="35" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -7269,10 +7343,10 @@
         <v>14</v>
       </c>
       <c r="M5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O5" s="35" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -7283,10 +7357,10 @@
         <v>15</v>
       </c>
       <c r="M6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O6" s="35" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -7297,7 +7371,7 @@
         <v>16</v>
       </c>
       <c r="M7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -7305,7 +7379,7 @@
         <v>5</v>
       </c>
       <c r="M8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -7313,7 +7387,7 @@
         <v>8</v>
       </c>
       <c r="M9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -7321,7 +7395,7 @@
         <v>13</v>
       </c>
       <c r="M10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -7329,7 +7403,7 @@
         <v>20</v>
       </c>
       <c r="M11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -7337,7 +7411,7 @@
         <v>40</v>
       </c>
       <c r="M12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -7345,27 +7419,27 @@
         <v>100</v>
       </c>
       <c r="M13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="M14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="M15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="M16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="13:13">
       <c r="M17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>

--- a/LJM-QA.01-프로젝트모니터링도구-2분반-8조.xlsx
+++ b/LJM-QA.01-프로젝트모니터링도구-2분반-8조.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\University\객체지향 프로그래밍Ⅱ (이종민)\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F00302CB-7A64-4B4C-8260-5F213C211013}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{901A8965-9DE2-475F-A2A0-75859D9693B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18636" yWindow="4368" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="기본 정보" sheetId="7" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <sheet name="도구" sheetId="5" state="hidden" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">기능요구사항!$A$1:$I$43</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">기능요구사항!$A$1:$I$44</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="217">
   <si>
     <t>ID</t>
   </si>
@@ -1777,12 +1777,20 @@
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>SFR-105</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 화면을 보여준다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1977,6 +1985,14 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
   <fills count="11">
     <fill>
@@ -2106,7 +2122,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2291,11 +2307,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="73">
+  <dxfs count="79">
     <dxf>
       <fill>
         <patternFill>
@@ -2318,44 +2337,12 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2372,14 +2359,38 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2394,6 +2405,34 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF006100"/>
       </font>
@@ -2404,6 +2443,82 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.79998168889431442"/>
@@ -2425,23 +2540,12 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2452,37 +2556,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4567,11 +4640,11 @@
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:I65"/>
+  <dimension ref="A1:I66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="17.399999999999999"/>
@@ -4757,73 +4830,73 @@
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="41" t="s">
-        <v>183</v>
-      </c>
-      <c r="B7" s="44" t="s">
-        <v>142</v>
-      </c>
-      <c r="C7" s="43">
-        <v>8</v>
-      </c>
-      <c r="D7" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="43" t="s">
-        <v>95</v>
-      </c>
-      <c r="F7" s="43" t="s">
+      <c r="A7" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="B7" s="62" t="s">
+        <v>216</v>
+      </c>
+      <c r="C7" s="19">
+        <v>1</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="F7" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="G7" s="43" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" s="43"/>
+      <c r="G7" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" s="50" t="s">
+        <v>197</v>
+      </c>
       <c r="I7" s="4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="B8" s="39" t="s">
-        <v>143</v>
-      </c>
-      <c r="C8" s="6">
-        <v>2</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>200</v>
-      </c>
-      <c r="F8" s="19" t="s">
+      <c r="A8" s="41" t="s">
+        <v>183</v>
+      </c>
+      <c r="B8" s="44" t="s">
+        <v>142</v>
+      </c>
+      <c r="C8" s="43">
+        <v>8</v>
+      </c>
+      <c r="D8" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="F8" s="43" t="s">
         <v>134</v>
       </c>
-      <c r="G8" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="H8" s="50" t="s">
-        <v>209</v>
-      </c>
+      <c r="G8" s="43" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" s="43"/>
       <c r="I8" s="4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="19" t="s">
-        <v>213</v>
-      </c>
-      <c r="B9" s="37" t="s">
-        <v>144</v>
-      </c>
-      <c r="C9" s="19">
-        <v>3</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>188</v>
+        <v>146</v>
+      </c>
+      <c r="B9" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="C9" s="6">
+        <v>2</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>36</v>
       </c>
       <c r="E9" s="19" t="s">
         <v>200</v>
@@ -4835,22 +4908,24 @@
         <v>1</v>
       </c>
       <c r="H9" s="50" t="s">
-        <v>204</v>
-      </c>
-      <c r="I9" s="4"/>
+        <v>209</v>
+      </c>
+      <c r="I9" s="4" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="19" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B10" s="37" t="s">
-        <v>145</v>
-      </c>
-      <c r="C10" s="6">
+        <v>144</v>
+      </c>
+      <c r="C10" s="19">
         <v>3</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>5</v>
+      <c r="D10" s="19" t="s">
+        <v>188</v>
       </c>
       <c r="E10" s="19" t="s">
         <v>200</v>
@@ -4861,79 +4936,79 @@
       <c r="G10" s="19" t="b">
         <v>1</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="50" t="s">
         <v>204</v>
       </c>
-      <c r="I10" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="I10" s="4"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="41" t="s">
-        <v>184</v>
-      </c>
-      <c r="B11" s="44" t="s">
-        <v>147</v>
-      </c>
-      <c r="C11" s="43">
-        <v>13</v>
-      </c>
-      <c r="D11" s="43" t="s">
-        <v>188</v>
-      </c>
-      <c r="E11" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="43" t="s">
+      <c r="A11" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="B11" s="37" t="s">
+        <v>145</v>
+      </c>
+      <c r="C11" s="6">
+        <v>3</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="F11" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="G11" s="43" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" s="43"/>
+      <c r="G11" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>204</v>
+      </c>
       <c r="I11" s="4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="B12" s="39" t="s">
-        <v>148</v>
-      </c>
-      <c r="C12" s="19">
-        <v>2</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="48" t="s">
+      <c r="A12" s="41" t="s">
+        <v>184</v>
+      </c>
+      <c r="B12" s="44" t="s">
+        <v>147</v>
+      </c>
+      <c r="C12" s="43">
+        <v>13</v>
+      </c>
+      <c r="D12" s="43" t="s">
+        <v>188</v>
+      </c>
+      <c r="E12" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="19" t="s">
+      <c r="F12" s="43" t="s">
         <v>134</v>
       </c>
-      <c r="G12" s="19" t="b">
+      <c r="G12" s="43" t="b">
         <v>0</v>
       </c>
-      <c r="H12" s="19"/>
+      <c r="H12" s="43"/>
       <c r="I12" s="4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="B13" s="37" t="s">
-        <v>149</v>
+        <v>152</v>
+      </c>
+      <c r="B13" s="39" t="s">
+        <v>148</v>
       </c>
       <c r="C13" s="19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>188</v>
+        <v>36</v>
       </c>
       <c r="E13" s="48" t="s">
         <v>11</v>
@@ -4945,17 +5020,19 @@
         <v>0</v>
       </c>
       <c r="H13" s="19"/>
-      <c r="I13" s="4"/>
+      <c r="I13" s="4" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B14" s="37" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C14" s="19">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D14" s="19" t="s">
         <v>188</v>
@@ -4970,22 +5047,20 @@
         <v>0</v>
       </c>
       <c r="H14" s="19"/>
-      <c r="I14" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="I14" s="4"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B15" s="37" t="s">
-        <v>151</v>
-      </c>
-      <c r="C15" s="6">
-        <v>2</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>36</v>
+        <v>150</v>
+      </c>
+      <c r="C15" s="19">
+        <v>5</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>188</v>
       </c>
       <c r="E15" s="48" t="s">
         <v>11</v>
@@ -4996,26 +5071,26 @@
       <c r="G15" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="H15" s="6"/>
+      <c r="H15" s="19"/>
       <c r="I15" s="4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="51" t="s">
-        <v>208</v>
-      </c>
-      <c r="B16" s="52" t="s">
-        <v>207</v>
-      </c>
-      <c r="C16" s="19">
-        <v>3</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>6</v>
+      <c r="A16" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="B16" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="C16" s="6">
+        <v>2</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>36</v>
       </c>
       <c r="E16" s="48" t="s">
-        <v>95</v>
+        <v>11</v>
       </c>
       <c r="F16" s="19" t="s">
         <v>134</v>
@@ -5023,75 +5098,75 @@
       <c r="G16" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="4"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="4" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="41" t="s">
+      <c r="A17" s="51" t="s">
+        <v>208</v>
+      </c>
+      <c r="B17" s="52" t="s">
+        <v>207</v>
+      </c>
+      <c r="C17" s="19">
+        <v>3</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="48" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="G17" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17" s="19"/>
+      <c r="I17" s="4"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="41" t="s">
         <v>185</v>
       </c>
-      <c r="B17" s="44" t="s">
+      <c r="B18" s="44" t="s">
         <v>141</v>
       </c>
-      <c r="C17" s="43">
+      <c r="C18" s="43">
         <v>20</v>
       </c>
-      <c r="D17" s="43" t="s">
+      <c r="D18" s="43" t="s">
         <v>188</v>
       </c>
-      <c r="E17" s="47" t="s">
+      <c r="E18" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="43" t="s">
+      <c r="F18" s="43" t="s">
         <v>134</v>
       </c>
-      <c r="G17" s="43" t="b">
+      <c r="G18" s="43" t="b">
         <v>0</v>
       </c>
-      <c r="H17" s="43"/>
-      <c r="I17" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="19" t="s">
-        <v>163</v>
-      </c>
-      <c r="B18" s="37" t="s">
-        <v>156</v>
-      </c>
-      <c r="C18" s="6">
-        <v>1</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="G18" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18" s="6"/>
+      <c r="H18" s="43"/>
       <c r="I18" s="4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B19" s="37" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C19" s="6">
+        <v>1</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>5</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>188</v>
       </c>
       <c r="E19" s="48" t="s">
         <v>11</v>
@@ -5099,7 +5174,7 @@
       <c r="F19" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="G19" s="19" t="b">
+      <c r="G19" s="12" t="b">
         <v>0</v>
       </c>
       <c r="H19" s="6"/>
@@ -5109,16 +5184,16 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="19" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B20" s="37" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C20" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>36</v>
+        <v>188</v>
       </c>
       <c r="E20" s="48" t="s">
         <v>11</v>
@@ -5136,13 +5211,13 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="19" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B21" s="37" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C21" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>36</v>
@@ -5163,16 +5238,16 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B22" s="37" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C22" s="6">
         <v>2</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="E22" s="48" t="s">
         <v>11</v>
@@ -5188,18 +5263,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15" customHeight="1">
+    <row r="23" spans="1:9">
       <c r="A23" s="19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B23" s="37" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C23" s="6">
+        <v>2</v>
+      </c>
+      <c r="D23" s="6" t="s">
         <v>5</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>188</v>
       </c>
       <c r="E23" s="48" t="s">
         <v>11</v>
@@ -5215,66 +5290,66 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="41" t="s">
-        <v>187</v>
-      </c>
-      <c r="B24" s="42" t="s">
-        <v>169</v>
-      </c>
-      <c r="C24" s="43">
-        <v>13</v>
-      </c>
-      <c r="D24" s="43" t="s">
+    <row r="24" spans="1:9" ht="15" customHeight="1">
+      <c r="A24" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="B24" s="37" t="s">
+        <v>161</v>
+      </c>
+      <c r="C24" s="6">
         <v>5</v>
       </c>
-      <c r="E24" s="47" t="s">
+      <c r="D24" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="E24" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="F24" s="43" t="s">
+      <c r="F24" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="G24" s="43" t="b">
+      <c r="G24" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="H24" s="43"/>
+      <c r="H24" s="6"/>
       <c r="I24" s="4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15" customHeight="1">
-      <c r="A25" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="B25" s="40" t="s">
-        <v>170</v>
-      </c>
-      <c r="C25" s="6">
-        <v>2</v>
-      </c>
-      <c r="D25" s="6" t="s">
+    <row r="25" spans="1:9">
+      <c r="A25" s="41" t="s">
+        <v>187</v>
+      </c>
+      <c r="B25" s="42" t="s">
+        <v>169</v>
+      </c>
+      <c r="C25" s="43">
+        <v>13</v>
+      </c>
+      <c r="D25" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="E25" s="48" t="s">
+      <c r="E25" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="F25" s="19" t="s">
+      <c r="F25" s="43" t="s">
         <v>134</v>
       </c>
-      <c r="G25" s="12" t="b">
+      <c r="G25" s="43" t="b">
         <v>0</v>
       </c>
-      <c r="H25" s="6"/>
+      <c r="H25" s="43"/>
       <c r="I25" s="4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="B26" s="37" t="s">
-        <v>172</v>
+    <row r="26" spans="1:9" ht="15" customHeight="1">
+      <c r="A26" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="B26" s="40" t="s">
+        <v>170</v>
       </c>
       <c r="C26" s="6">
         <v>2</v>
@@ -5288,7 +5363,7 @@
       <c r="F26" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="G26" s="19" t="b">
+      <c r="G26" s="12" t="b">
         <v>0</v>
       </c>
       <c r="H26" s="6"/>
@@ -5296,18 +5371,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15" customHeight="1">
+    <row r="27" spans="1:9">
       <c r="A27" s="19" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B27" s="37" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C27" s="6">
+        <v>2</v>
+      </c>
+      <c r="D27" s="6" t="s">
         <v>5</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>188</v>
       </c>
       <c r="E27" s="48" t="s">
         <v>11</v>
@@ -5325,16 +5400,16 @@
     </row>
     <row r="28" spans="1:9" ht="15" customHeight="1">
       <c r="A28" s="19" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B28" s="37" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C28" s="6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>5</v>
+        <v>188</v>
       </c>
       <c r="E28" s="48" t="s">
         <v>11</v>
@@ -5350,12 +5425,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" ht="15" customHeight="1">
       <c r="A29" s="19" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B29" s="37" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C29" s="6">
         <v>2</v>
@@ -5379,16 +5454,16 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="19" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B30" s="37" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C30" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>188</v>
+        <v>5</v>
       </c>
       <c r="E30" s="48" t="s">
         <v>11</v>
@@ -5404,14 +5479,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15" customHeight="1">
-      <c r="A31" s="6"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="12"/>
+    <row r="31" spans="1:9">
+      <c r="A31" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="B31" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="C31" s="6">
+        <v>3</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="E31" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="G31" s="19" t="b">
+        <v>0</v>
+      </c>
       <c r="H31" s="6"/>
       <c r="I31" s="4" t="b">
         <v>0</v>
@@ -5456,7 +5545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" ht="15" customHeight="1">
       <c r="A35" s="6"/>
       <c r="B35" s="5"/>
       <c r="C35" s="6"/>
@@ -5478,7 +5567,9 @@
       <c r="F36" s="6"/>
       <c r="G36" s="12"/>
       <c r="H36" s="6"/>
-      <c r="I36" s="4"/>
+      <c r="I36" s="4" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="6"/>
@@ -5646,164 +5737,175 @@
       <c r="I51" s="4"/>
     </row>
     <row r="52" spans="1:9">
-      <c r="B52" s="26" t="s">
+      <c r="A52" s="6"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="12"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="4"/>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="B53" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="C52" s="25">
-        <f>SUM(C2:C51)</f>
-        <v>123</v>
-      </c>
-      <c r="D52" s="20" t="s">
+      <c r="C53" s="25">
+        <f>SUM(C2:C52)</f>
+        <v>124</v>
+      </c>
+      <c r="D53" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="E52" s="20">
-        <f>SUMIF(E2:E51, "완료", C2:C51)</f>
+      <c r="E53" s="20">
+        <f>SUMIF(E2:E52, "완료", C2:C52)</f>
         <v>0</v>
       </c>
-      <c r="F52" s="21" t="s">
+      <c r="F53" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="G52" s="22">
-        <f>SUMIF(G2:G51,TRUE,C2:C51)</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="31.2" customHeight="1">
-      <c r="B53" s="16"/>
-      <c r="C53" s="13"/>
-      <c r="D53" s="30" t="s">
+      <c r="G53" s="22">
+        <f>SUMIF(G2:G52,TRUE,C2:C52)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="31.2" customHeight="1">
+      <c r="B54" s="16"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="E53" s="23">
-        <f>SUMIFS(C2:C51, E2:E51, "완료", G2:G51, TRUE)</f>
+      <c r="E54" s="23">
+        <f>SUMIFS(C2:C52, E2:E52, "완료", G2:G52, TRUE)</f>
         <v>0</v>
       </c>
-      <c r="F53" s="14"/>
-      <c r="G53" s="13"/>
-    </row>
-    <row r="54" spans="1:9">
-      <c r="B54" s="36" t="s">
+      <c r="F54" s="14"/>
+      <c r="G54" s="13"/>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="B55" s="36" t="s">
         <v>133</v>
       </c>
-      <c r="C54" s="25">
-        <f>COUNTA(A2:A51)-COUNTIF(C2:C51, 0)-COUNTIF(C2:C51, -1)</f>
-        <v>29</v>
-      </c>
-      <c r="D54" s="13"/>
-      <c r="E54" s="13"/>
-      <c r="F54" s="24" t="s">
+      <c r="C55" s="25">
+        <f>COUNTA(A2:A52)-COUNTIF(C2:C52, 0)-COUNTIF(C2:C52, -1)</f>
+        <v>30</v>
+      </c>
+      <c r="D55" s="13"/>
+      <c r="E55" s="13"/>
+      <c r="F55" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="G54" s="25">
-        <f>G52+E52-E53</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
-      <c r="A55" s="59" t="s">
+      <c r="G55" s="25">
+        <f>G53+E53-E54</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="B55" s="59"/>
-      <c r="C55" s="59"/>
-      <c r="D55" s="59"/>
-      <c r="E55" s="59"/>
-      <c r="F55" s="59"/>
-      <c r="G55" s="59"/>
-      <c r="H55" s="59"/>
-      <c r="I55" s="59"/>
-    </row>
-    <row r="56" spans="1:9">
-      <c r="A56" s="60" t="s">
+      <c r="B56" s="59"/>
+      <c r="C56" s="59"/>
+      <c r="D56" s="59"/>
+      <c r="E56" s="59"/>
+      <c r="F56" s="59"/>
+      <c r="G56" s="59"/>
+      <c r="H56" s="59"/>
+      <c r="I56" s="59"/>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="B56" s="60"/>
-      <c r="C56" s="60"/>
-      <c r="D56" s="60"/>
-      <c r="E56" s="60"/>
-      <c r="F56" s="60"/>
-      <c r="G56" s="60"/>
-      <c r="H56" s="60"/>
-      <c r="I56" s="60"/>
-    </row>
-    <row r="58" spans="1:9">
-      <c r="B58" s="17" t="s">
-        <v>101</v>
-      </c>
+      <c r="B57" s="60"/>
+      <c r="C57" s="60"/>
+      <c r="D57" s="60"/>
+      <c r="E57" s="60"/>
+      <c r="F57" s="60"/>
+      <c r="G57" s="60"/>
+      <c r="H57" s="60"/>
+      <c r="I57" s="60"/>
     </row>
     <row r="59" spans="1:9">
       <c r="B59" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="60" spans="1:9">
       <c r="B60" s="17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="B61" s="17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="B62" s="17" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="B63" s="17" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="63" spans="1:9">
-      <c r="B63" s="29"/>
-    </row>
     <row r="64" spans="1:9">
-      <c r="B64" s="27" t="s">
+      <c r="B64" s="29"/>
+    </row>
+    <row r="65" spans="2:2">
+      <c r="B65" s="27" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="65" spans="2:2" ht="15" customHeight="1">
-      <c r="B65" s="28" t="s">
+    <row r="66" spans="2:2" ht="15" customHeight="1">
+      <c r="B66" s="28" t="s">
         <v>108</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I43" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A1:I44" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="2">
-    <mergeCell ref="A55:I55"/>
     <mergeCell ref="A56:I56"/>
+    <mergeCell ref="A57:I57"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="A8:D8 A10:D10 C9:D9 A8:A10 B18:I23 A25:I51 A2:I3 A6 A4:F5 B14:D15 A13:A15 C16:D16 E12:F16 G13:I16 H4:I5 G3:G6 G8:I10 E3:E6">
-    <cfRule type="expression" dxfId="72" priority="93">
+  <conditionalFormatting sqref="A9:D9 A11:D11 C10:D10 A9:A11 B19:I24 A26:I52 A2:I3 B15:D16 A14:A16 C17:D17 E13:F17 G14:I17 G9:I11 A6 A4:F5 H4:I5 G3:G5 E3:E5 C6:H6">
+    <cfRule type="expression" dxfId="78" priority="105">
       <formula>$C2=""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="71" priority="94">
+    <cfRule type="expression" dxfId="77" priority="106">
       <formula>$C2=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="95">
+    <cfRule type="expression" dxfId="76" priority="107">
       <formula>$C2=-1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I8:I10 I15:I16 I18:I23 I25:I51 I2:I5">
-    <cfRule type="cellIs" dxfId="69" priority="76" operator="equal">
+  <conditionalFormatting sqref="I9:I11 I16:I17 I19:I24 I26:I52 I2:I6">
+    <cfRule type="cellIs" dxfId="75" priority="88" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A7:I7">
-    <cfRule type="expression" dxfId="68" priority="66">
-      <formula>$C7=""</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="67" priority="67">
-      <formula>$C7=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="66" priority="68">
-      <formula>$C7=-1</formula>
+  <conditionalFormatting sqref="A8:I8">
+    <cfRule type="expression" dxfId="74" priority="78">
+      <formula>$C8=""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="73" priority="79">
+      <formula>$C8=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="72" priority="80">
+      <formula>$C8=-1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="65" priority="65" operator="equal">
+  <conditionalFormatting sqref="I8">
+    <cfRule type="cellIs" dxfId="71" priority="77" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C7">
-    <cfRule type="dataBar" priority="69">
+  <conditionalFormatting sqref="C8">
+    <cfRule type="dataBar" priority="81">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5816,14 +5918,14 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="64" priority="70"/>
+  <conditionalFormatting sqref="A8">
+    <cfRule type="duplicateValues" dxfId="70" priority="82"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G7">
-    <cfRule type="cellIs" dxfId="63" priority="71" operator="equal">
+  <conditionalFormatting sqref="G8">
+    <cfRule type="cellIs" dxfId="69" priority="83" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="72">
+    <cfRule type="dataBar" priority="84">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5836,35 +5938,35 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B9">
-    <cfRule type="expression" dxfId="62" priority="263">
+  <conditionalFormatting sqref="B10">
+    <cfRule type="expression" dxfId="68" priority="275">
       <formula>#REF!=""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="264">
+    <cfRule type="expression" dxfId="67" priority="276">
       <formula>#REF!=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="265">
+    <cfRule type="expression" dxfId="66" priority="277">
       <formula>#REF!=-1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A11:D11 F11:I11">
-    <cfRule type="expression" dxfId="59" priority="58">
-      <formula>$C11=""</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="58" priority="59">
-      <formula>$C11=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="57" priority="60">
-      <formula>$C11=-1</formula>
+  <conditionalFormatting sqref="A12:D12 F12:I12">
+    <cfRule type="expression" dxfId="65" priority="70">
+      <formula>$C12=""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="64" priority="71">
+      <formula>$C12=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="63" priority="72">
+      <formula>$C12=-1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="56" priority="57" operator="equal">
+  <conditionalFormatting sqref="I12">
+    <cfRule type="cellIs" dxfId="62" priority="69" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C11">
-    <cfRule type="dataBar" priority="61">
+  <conditionalFormatting sqref="C12">
+    <cfRule type="dataBar" priority="73">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5877,14 +5979,14 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="55" priority="62"/>
+  <conditionalFormatting sqref="A12">
+    <cfRule type="duplicateValues" dxfId="61" priority="74"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G11">
-    <cfRule type="cellIs" dxfId="54" priority="63" operator="equal">
+  <conditionalFormatting sqref="G12">
+    <cfRule type="cellIs" dxfId="60" priority="75" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="64">
+    <cfRule type="dataBar" priority="76">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5897,24 +5999,24 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A12:D12 C13:D13 G12:I12">
-    <cfRule type="expression" dxfId="53" priority="47">
-      <formula>$C12=""</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="52" priority="48">
-      <formula>$C12=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="51" priority="49">
-      <formula>$C12=-1</formula>
+  <conditionalFormatting sqref="A13:D13 C14:D14 G13:I13">
+    <cfRule type="expression" dxfId="59" priority="59">
+      <formula>$C13=""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="58" priority="60">
+      <formula>$C13=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="57" priority="61">
+      <formula>$C13=-1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I12:I16">
-    <cfRule type="cellIs" dxfId="50" priority="46" operator="equal">
+  <conditionalFormatting sqref="I13:I17">
+    <cfRule type="cellIs" dxfId="56" priority="58" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C12:C14">
-    <cfRule type="dataBar" priority="50">
+  <conditionalFormatting sqref="C13:C15">
+    <cfRule type="dataBar" priority="62">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5927,35 +6029,35 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B13">
-    <cfRule type="expression" dxfId="49" priority="54">
+  <conditionalFormatting sqref="B14">
+    <cfRule type="expression" dxfId="55" priority="66">
       <formula>#REF!=""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="55">
+    <cfRule type="expression" dxfId="54" priority="67">
       <formula>#REF!=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="47" priority="56">
+    <cfRule type="expression" dxfId="53" priority="68">
       <formula>#REF!=-1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A17:D17 F17:I17">
-    <cfRule type="expression" dxfId="46" priority="39">
-      <formula>$C17=""</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="45" priority="40">
-      <formula>$C17=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="44" priority="41">
-      <formula>$C17=-1</formula>
+  <conditionalFormatting sqref="A18:D18 F18:I18">
+    <cfRule type="expression" dxfId="52" priority="51">
+      <formula>$C18=""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="51" priority="52">
+      <formula>$C18=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="50" priority="53">
+      <formula>$C18=-1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I17">
-    <cfRule type="cellIs" dxfId="43" priority="38" operator="equal">
+  <conditionalFormatting sqref="I18">
+    <cfRule type="cellIs" dxfId="49" priority="50" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C17">
-    <cfRule type="dataBar" priority="42">
+  <conditionalFormatting sqref="C18">
+    <cfRule type="dataBar" priority="54">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5968,14 +6070,14 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A17">
-    <cfRule type="duplicateValues" dxfId="42" priority="43"/>
+  <conditionalFormatting sqref="A18">
+    <cfRule type="duplicateValues" dxfId="48" priority="55"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G17">
-    <cfRule type="cellIs" dxfId="41" priority="44" operator="equal">
+  <conditionalFormatting sqref="G18">
+    <cfRule type="cellIs" dxfId="47" priority="56" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="45">
+    <cfRule type="dataBar" priority="57">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5988,38 +6090,38 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A18:A23">
-    <cfRule type="expression" dxfId="40" priority="34">
-      <formula>$C18=""</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="39" priority="35">
-      <formula>$C18=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="38" priority="36">
-      <formula>$C18=-1</formula>
+  <conditionalFormatting sqref="A19:A24">
+    <cfRule type="expression" dxfId="46" priority="46">
+      <formula>$C19=""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="45" priority="47">
+      <formula>$C19=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="44" priority="48">
+      <formula>$C19=-1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A18:A23">
-    <cfRule type="duplicateValues" dxfId="37" priority="37"/>
+  <conditionalFormatting sqref="A19:A24">
+    <cfRule type="duplicateValues" dxfId="43" priority="49"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A24:D24 F24:I24">
-    <cfRule type="expression" dxfId="36" priority="27">
-      <formula>$C24=""</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="35" priority="28">
-      <formula>$C24=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="34" priority="29">
-      <formula>$C24=-1</formula>
+  <conditionalFormatting sqref="A25:D25 F25:I25">
+    <cfRule type="expression" dxfId="42" priority="39">
+      <formula>$C25=""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="41" priority="40">
+      <formula>$C25=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="40" priority="41">
+      <formula>$C25=-1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I24">
-    <cfRule type="cellIs" dxfId="33" priority="26" operator="equal">
+  <conditionalFormatting sqref="I25">
+    <cfRule type="cellIs" dxfId="39" priority="38" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C24">
-    <cfRule type="dataBar" priority="30">
+  <conditionalFormatting sqref="C25">
+    <cfRule type="dataBar" priority="42">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6032,14 +6134,14 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A24">
-    <cfRule type="duplicateValues" dxfId="32" priority="31"/>
+  <conditionalFormatting sqref="A25">
+    <cfRule type="duplicateValues" dxfId="38" priority="43"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G24">
-    <cfRule type="cellIs" dxfId="31" priority="32" operator="equal">
+  <conditionalFormatting sqref="G25">
+    <cfRule type="cellIs" dxfId="37" priority="44" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="33">
+    <cfRule type="dataBar" priority="45">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6052,30 +6154,30 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E24 E17 E11">
-    <cfRule type="expression" dxfId="27" priority="20">
-      <formula>$C11=""</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="26" priority="21">
-      <formula>$C11=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="25" priority="22">
-      <formula>$C11=-1</formula>
+  <conditionalFormatting sqref="E25 E18 E12">
+    <cfRule type="expression" dxfId="36" priority="32">
+      <formula>$C12=""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="35" priority="33">
+      <formula>$C12=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="34" priority="34">
+      <formula>$C12=-1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F8:F10">
-    <cfRule type="expression" dxfId="24" priority="17">
-      <formula>$C8=""</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="23" priority="18">
-      <formula>$C8=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="22" priority="19">
-      <formula>$C8=-1</formula>
+  <conditionalFormatting sqref="F9:F11">
+    <cfRule type="expression" dxfId="33" priority="29">
+      <formula>$C9=""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="32" priority="30">
+      <formula>$C9=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="31" priority="31">
+      <formula>$C9=-1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C18:C23 C2:C5 C15:C16 C8:C10 C25:C51">
-    <cfRule type="dataBar" priority="274">
+  <conditionalFormatting sqref="C19:C24 C2:C5 C16:C17 C9:C11 C26:C52">
+    <cfRule type="dataBar" priority="286">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6088,14 +6190,59 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A25:A51 A8:A10 A2:A6">
-    <cfRule type="duplicateValues" dxfId="21" priority="280"/>
+  <conditionalFormatting sqref="C6">
+    <cfRule type="dataBar" priority="28">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{A6CE1503-FB01-48A5-9A32-D5A4CD6AF044}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G18:G23 G25:G51 G2:G6 G8:G10">
-    <cfRule type="cellIs" dxfId="20" priority="284" operator="equal">
+  <conditionalFormatting sqref="G13:G17">
+    <cfRule type="cellIs" dxfId="30" priority="325" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="285">
+    <cfRule type="dataBar" priority="326">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{0849FD60-15E4-40E1-929A-966625B1D37D}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A13:A16">
+    <cfRule type="duplicateValues" dxfId="29" priority="342"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9:E11">
+    <cfRule type="expression" dxfId="28" priority="13">
+      <formula>$C9=""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="27" priority="14">
+      <formula>$C9=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="15">
+      <formula>$C9=-1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A26:A52 A9:A11 A2:A6">
+    <cfRule type="duplicateValues" dxfId="16" priority="369"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G19:G24 G26:G52 G2:G6 G9:G11">
+    <cfRule type="cellIs" dxfId="15" priority="373" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="dataBar" priority="374">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6108,19 +6255,55 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C6">
-    <cfRule type="expression" dxfId="19" priority="13">
-      <formula>$C6=""</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="18" priority="14">
-      <formula>$C6=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="17" priority="15">
-      <formula>$C6=-1</formula>
+  <conditionalFormatting sqref="A7:B7 D7:I7">
+    <cfRule type="expression" dxfId="8" priority="6">
+      <formula>$C7=""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="7">
+      <formula>$C7=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="8">
+      <formula>$C7=-1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C6">
-    <cfRule type="dataBar" priority="16">
+  <conditionalFormatting sqref="I7">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A7">
+    <cfRule type="duplicateValues" dxfId="4" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7">
+    <cfRule type="cellIs" dxfId="3" priority="11" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="dataBar" priority="12">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{6104C523-9F46-467E-B1A9-DE1D3BAA884C}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C7">
+    <cfRule type="expression" dxfId="2" priority="1">
+      <formula>$C7=""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$C7=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="3">
+      <formula>$C7=-1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C7">
+    <cfRule type="dataBar" priority="4">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6128,51 +6311,9 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{A6CE1503-FB01-48A5-9A32-D5A4CD6AF044}</x14:id>
+          <x14:id>{056A117C-264E-477A-9110-BC7F28789041}</x14:id>
         </ext>
       </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6:F6 H6">
-    <cfRule type="expression" dxfId="16" priority="8">
-      <formula>$C6=""</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="15" priority="9">
-      <formula>$C6=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="14" priority="10">
-      <formula>$C6=-1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G12:G16">
-    <cfRule type="cellIs" dxfId="13" priority="313" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-    <cfRule type="dataBar" priority="314">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFB628"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0849FD60-15E4-40E1-929A-966625B1D37D}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A12:A15">
-    <cfRule type="duplicateValues" dxfId="12" priority="330"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E8:E10">
-    <cfRule type="expression" dxfId="2" priority="1">
-      <formula>$C8=""</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$C8=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="3">
-      <formula>$C8=-1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6191,7 +6332,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C7</xm:sqref>
+          <xm:sqref>C8</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{0EC07B78-B3B6-40DF-B78E-A5EECDB52305}">
@@ -6204,7 +6345,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G7</xm:sqref>
+          <xm:sqref>G8</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{01784E3E-3576-43C2-B512-518C76191FEA}">
@@ -6217,7 +6358,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C11</xm:sqref>
+          <xm:sqref>C12</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{5478E603-E048-4710-B528-150BA44F971C}">
@@ -6230,7 +6371,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G11</xm:sqref>
+          <xm:sqref>G12</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{39A1B54E-577B-4CC6-B3C0-3D06C9F77651}">
@@ -6243,7 +6384,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C12:C14</xm:sqref>
+          <xm:sqref>C13:C15</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{D48B238B-57E3-4056-8A54-8209954CA86A}">
@@ -6256,7 +6397,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C17</xm:sqref>
+          <xm:sqref>C18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{971392BE-A197-4FAB-970A-A24FC38D6B6A}">
@@ -6269,7 +6410,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G17</xm:sqref>
+          <xm:sqref>G18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{94E884A5-A9A4-47FE-A6C2-3B5556818733}">
@@ -6282,7 +6423,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C24</xm:sqref>
+          <xm:sqref>C25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{283EC6DE-4EF4-443A-BA0B-43A447604A3A}">
@@ -6295,7 +6436,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G24</xm:sqref>
+          <xm:sqref>G25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{FEFB8DED-7A05-47F3-A26B-D82B85A610CE}">
@@ -6308,20 +6449,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C18:C23 C2:C5 C15:C16 C8:C10 C25:C51</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{9FA1081B-1BCC-4393-A4D4-E2D4E0F10E5F}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FFFFB628"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>G18:G23 G25:G51 G2:G6 G8:G10</xm:sqref>
+          <xm:sqref>C19:C24 C2:C5 C16:C17 C9:C11 C26:C52</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{A6CE1503-FB01-48A5-9A32-D5A4CD6AF044}">
@@ -6347,7 +6475,46 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G12:G16</xm:sqref>
+          <xm:sqref>G13:G17</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{9FA1081B-1BCC-4393-A4D4-E2D4E0F10E5F}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFFFB628"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G19:G24 G26:G52 G2:G6 G9:G11</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{6104C523-9F46-467E-B1A9-DE1D3BAA884C}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFFFB628"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G7</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{056A117C-264E-477A-9110-BC7F28789041}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C7</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -6357,37 +6524,37 @@
           <x14:formula1>
             <xm:f>도구!$C$2:$C$4</xm:f>
           </x14:formula1>
-          <xm:sqref>D57</xm:sqref>
+          <xm:sqref>D58</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="반복 대상" prompt="이번 반복 주기에 완료하려는 요구사항이면 TRUE를, 아니면 FALSE를 선택하세요." xr:uid="{00000000-0002-0000-0100-000002000000}">
           <x14:formula1>
             <xm:f>도구!$I$2:$I$3</xm:f>
           </x14:formula1>
-          <xm:sqref>I2:I5 I7:I51</xm:sqref>
+          <xm:sqref>I2:I52</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="개발 단계" prompt="현재 진행중인 단계를 의미합니다." xr:uid="{00000000-0002-0000-0100-000003000000}">
           <x14:formula1>
             <xm:f>도구!$E$2:$E$7</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E51</xm:sqref>
+          <xm:sqref>E2:E52</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="우선순위" prompt="상, 중, 하로 선택하세요." xr:uid="{00000000-0002-0000-0100-000004000000}">
           <x14:formula1>
             <xm:f>도구!$C$2:$C$4</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D51</xm:sqref>
+          <xm:sqref>D2:D52</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="반복 대상" prompt="이번 주에 개발하려는 기능 요구사항을 TRUE로 선택하면 됩니다. 스크럼처럼 반복 주기를 2주로 하는 경우 2주간 반복 대상을 동일하게 유지하면 됩니다._x000a_" xr:uid="{00000000-0002-0000-0100-000005000000}">
           <x14:formula1>
             <xm:f>도구!$I$2:$I$3</xm:f>
           </x14:formula1>
-          <xm:sqref>G2:G51</xm:sqref>
+          <xm:sqref>G2:G52</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="추정치(일)" prompt="기능 요구사항을 완료하는데 필요한 일량을 일(day) 단위로 선택하세요. -1과 0은 각각 삭제된 요구사항과 다른 요구사항으로 재정의돤 것을 의미합니다." xr:uid="{00000000-0002-0000-0100-000001000000}">
           <x14:formula1>
             <xm:f>도구!$A$2:$A$13</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C51</xm:sqref>
+          <xm:sqref>C2:C52</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -6836,10 +7003,10 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="E2">
-    <cfRule type="expression" dxfId="11" priority="1">
+    <cfRule type="expression" dxfId="25" priority="1">
       <formula>$C2="failed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="2">
+    <cfRule type="expression" dxfId="24" priority="2">
       <formula>$C2="success"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7102,13 +7269,13 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A2:A21 A23">
-    <cfRule type="duplicateValues" dxfId="9" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23 A6:F21 A2:A5 C2:C5 E2:F5">
-    <cfRule type="expression" dxfId="8" priority="9">
+    <cfRule type="expression" dxfId="22" priority="9">
       <formula>$C2="failed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="10">
+    <cfRule type="expression" dxfId="21" priority="10">
       <formula>$C2="success"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7155,18 +7322,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B5">
-    <cfRule type="expression" dxfId="6" priority="3">
+    <cfRule type="expression" dxfId="20" priority="3">
       <formula>$C2="failed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="4">
+    <cfRule type="expression" dxfId="19" priority="4">
       <formula>$C2="success"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D5">
-    <cfRule type="expression" dxfId="4" priority="1">
+    <cfRule type="expression" dxfId="18" priority="1">
       <formula>$C2="failed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="17" priority="2">
       <formula>$C2="success"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/LJM-QA.01-프로젝트모니터링도구-2분반-8조.xlsx
+++ b/LJM-QA.01-프로젝트모니터링도구-2분반-8조.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\University\객체지향 프로그래밍Ⅱ (이종민)\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{901A8965-9DE2-475F-A2A0-75859D9693B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA0B293E-7727-4005-AD3D-52CC8D16A088}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="기본 정보" sheetId="7" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <sheet name="도구" sheetId="5" state="hidden" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">기능요구사항!$A$1:$I$44</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">기능요구사항!$A$1:$I$46</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="228">
   <si>
     <t>ID</t>
   </si>
@@ -48,153 +48,153 @@
   </si>
   <si>
     <t>추정치</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>우선순위</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>상</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>중</t>
   </si>
   <si>
     <t>중</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>하</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>추정치(일)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>개발 단계</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>개발단계</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>시작</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>분석</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>설계</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>구현</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>테스팅</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>완료</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>관련 유스케이스</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>파일명</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>설명</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>산출물 이름</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>설명</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>관련 기능</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>관련 비기능</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>D-01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>D-02</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>D-03</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>관련 분석 산출물</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>관련 기능/비기능</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>관련 기능/비기능</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>테스팅 결과</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>ID</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>반복 대상</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>또는 스크럼의 User Story와 Task 개념으로 생각해도 좋음</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>기능 요구사항</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>하</t>
   </si>
   <si>
     <t>I-01</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>I-02</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>I-03</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>I-04</t>
@@ -210,227 +210,227 @@
   </si>
   <si>
     <t>요구사항 상세화 실무 가이드라인의 레벨2과 3에 기반하여 2 단계로 작성</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>SFR-100</t>
   </si>
   <si>
     <t>개발자</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>UC-101</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>SFR-501, SFR-502</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>D-01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>* 테스트 케이스 상세한 내용은 별도의 양식을 사용하여 작성하면 됩니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>failed</t>
   </si>
   <si>
     <t>TCS-301</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>TCS-201</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>TCS-102</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>TCS-101</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>관련 기능</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>관련 구현 산출물</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>테스팅 결과</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>테스트 케이스 이름</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>ID</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>success</t>
   </si>
   <si>
     <t>success</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>failed</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>교과목명</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>분반</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>조원</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>프로젝트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>분반</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>1분반</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2분반</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>조 번호</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>1조</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2조</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>3조</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>4조</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>5조</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>6조</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>7조</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>8조</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>9조</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>10조</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>11조</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>12조</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>13조</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>14조</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>15조</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>UC-102</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>UC-103</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>UC-104</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>UC-105</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>반복 대상</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>추정치 총합</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>주차</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>추정치 총합</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>시작</t>
   </si>
   <si>
     <t>완료 총합(B)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>진행 총합(A)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>계획 총합(A+B-C)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>계획 총합</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>작성일</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -455,7 +455,7 @@
       </rPr>
       <t>: 현재까지 파악된 기능 요구사항의 추정치 총합</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -480,7 +480,7 @@
       </rPr>
       <t>: 반복 대상이 TRUE인 기능 요구사항의 추정치 총합</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -505,7 +505,7 @@
       </rPr>
       <t>: 개발 단계가 "완료"인 기능 요구사항의 추정치 총합</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -530,7 +530,7 @@
       </rPr>
       <t>: 진행 중이면서 완료한 기능 요구사항의 추정치 총합</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -555,143 +555,143 @@
       </rPr>
       <t>: 진행 중이거나 완료한 기능 요구사항의 추정치 총합 (EVM의 Planned Value 개념)</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>* 매 주 프로젝트 진행 상황을 알 수 있도록 추정치 총합과 계획 총합을 위의 표에 적어야 함.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>기준: 4h/day/person * 2days/week * 팀원 수</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>예) 팀원 수 4명: 4*2*4 = 32h/week --&gt; 32시간/주 * 9주 = 288시간 = 하루 8시간 기준 36일</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>진행&amp;완료 
 총합(C)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>조 번호</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>정상적인 로그인</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>비정상적인 로그인(암호 틀림)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>비정상적인 로그인(사용자ID 틀림)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>사용자 추가</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>SFR-101, SFR-102, SFR-103</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>SFR-101, SFR-102, SFR-104</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>관련 비기능(X)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>관련 설계 산출물(X)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>SFR-101, SFR-102, SFR-103, SFR-104</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Login.java</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>로그인 기능을 구현</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Login.java</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>AddUser.java</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>* 객체지향 관련 교과목에서 사용하는 기본 양식은 동일합니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>* 기본 양식에서 제공되는 항목은 수정할 수 없습니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>* 기본 양식의 항목에 있는 값은 적절하게 수정하여 사용하면 됩니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>교과목명</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>객체지향프로그래밍II</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>소프트웨어설계공학</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>객체지향모델링</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>객체지향설계</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>기능 요구사항 수</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>기능 요구사항 수</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>TBD</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>기타 교과목</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>합반</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>16조</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>객체지향프로그래밍II</t>
   </si>
   <si>
     <t>ID와 P/W를 비교한다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -723,17 +723,64 @@
       </rPr>
       <t>에 따라 학생, 교수, 직원 화면을 보여준다</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>사용자 : 학생</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>사용자 : 직원(학사 담당자)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 : 직원(수업 담당자)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>새 강좌를 등록한다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>기존 강좌를 변경/삭제한다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>학생에게 수강료 청구서를 발송한다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록된 강좌의 정보를 확인한다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록된 강좌를 신청한다 (수강 신청)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>수강한 강좌를 변경/제거한다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>수강했던 과목의 성적을 조회한다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>자신(학생)의 정보를 조회한다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>자신(학생)의 정보를 변경한다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SFR-101</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>SFR-</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -742,40 +789,7 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">학사 담당자 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>UI</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>학생 정보를 등록/조회/삭제한다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>교수 정보를 등록/조회/삭제한다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>SFR-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>2</t>
+      <t>4</t>
     </r>
     <r>
       <rPr>
@@ -788,13 +802,12 @@
       </rPr>
       <t>01</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자 : 직원(수업 담당자)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>SFR-</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -803,30 +816,19 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">수업 담당자 </t>
+      <t>402</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="맑은 고딕"/>
         <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
       </rPr>
-      <t>UI</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>새 강좌를 등록한다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>기존 강좌를 변경/삭제한다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>학생에게 수강료 청구서를 발송한다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+      <t/>
+    </r>
   </si>
   <si>
     <r>
@@ -840,7 +842,178 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t>3</t>
+      <t>403</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>SFR-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>404</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>SFR-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>405</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>SFR-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>406</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>사용자 : 교수</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>등록된</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>강좌의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정보를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>확인한다</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>SFR-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>5</t>
     </r>
     <r>
       <rPr>
@@ -853,7 +1026,27 @@
       </rPr>
       <t>01</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>담당한 강좌의 정보를 확인한다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>담당한 강좌의 학생의 성적을 관리한다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>각 학생의 정보를 조회한다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>자신(교수)의 정보를 조회한다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>자신(교수)의 정보를 변경한다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -867,7 +1060,7 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t>302</t>
+      <t>502</t>
     </r>
     <r>
       <rPr>
@@ -893,7 +1086,7 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t>303</t>
+      <t>503</t>
     </r>
     <r>
       <rPr>
@@ -919,7 +1112,7 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t>304</t>
+      <t>504</t>
     </r>
     <r>
       <rPr>
@@ -934,34 +1127,6 @@
     </r>
   </si>
   <si>
-    <t>등록된 강좌의 정보를 확인한다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>등록된 강좌를 신청한다 (수강 신청)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>수강한 강좌를 변경/제거한다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>수강했던 과목의 성적을 조회한다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>자신(학생)의 정보를 조회한다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>자신(학생)의 정보를 변경한다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SFR-101</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>SFR-</t>
     </r>
@@ -973,34 +1138,7 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>01</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>SFR-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>402</t>
+      <t>505</t>
     </r>
     <r>
       <rPr>
@@ -1026,7 +1164,7 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t>403</t>
+      <t>506</t>
     </r>
     <r>
       <rPr>
@@ -1042,328 +1180,6 @@
   </si>
   <si>
     <r>
-      <t>SFR-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>404</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>SFR-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>405</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>SFR-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>406</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <t>사용자 : 교수</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>등록된</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>강좌의</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>정보를</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>확인한다</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>SFR-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>01</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>담당한 강좌의 정보를 확인한다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>담당한 강좌의 학생의 성적을 관리한다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>각 학생의 정보를 조회한다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>자신(교수)의 정보를 조회한다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>자신(교수)의 정보를 변경한다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>SFR-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>502</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>SFR-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>503</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>SFR-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>504</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>SFR-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>505</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>SFR-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>506</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
@@ -1503,7 +1319,7 @@
       </rPr>
       <t>.</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1532,7 +1348,7 @@
       </rPr>
       <t>00</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1561,7 +1377,7 @@
       </rPr>
       <t>00</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1590,7 +1406,7 @@
       </rPr>
       <t>00</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1619,7 +1435,7 @@
       </rPr>
       <t>로그인</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1648,7 +1464,7 @@
       </rPr>
       <t>00</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>상</t>
@@ -1658,108 +1474,76 @@
   </si>
   <si>
     <t>대학정보시스템</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>20183203 강준희</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>20183145 박상현</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>20193116 손성배</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>20183197 신종훈</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">20173149 이영훈 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2분반</t>
   </si>
   <si>
     <t>박상현</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>21.10.06</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>21.10.13</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>분석</t>
   </si>
   <si>
     <t>21.10.19</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>SFR-103</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>직원, 학생, 교수 클래스 생성</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>강준희, 신종훈</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>21.10.26</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>21.10.09</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>학생들의 수강료를 계산한다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SFR-305</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>박상현</t>
   </si>
   <si>
-    <t>손성배, 이영훈</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>SFR-102</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>SFR-104</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>SFR-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>202</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1775,22 +1559,237 @@
       </rPr>
       <t>203</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>SFR-105</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>로그인 화면을 보여준다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SFR-106</t>
+  </si>
+  <si>
+    <t>회원가입</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>학생 정보를 등록/삭제한다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>학생 정보를 조회한다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>SFR-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>201</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SFR-202</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SFR-204</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>교수 정보를 조회한다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>교수 정보를 등록/삭제한다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>강좌 정보를 조회한다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>SFR-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>301</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>SFR-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>302</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>SFR-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>303</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>SFR-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>304</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>SFR-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>305</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>설계</t>
+  </si>
+  <si>
+    <t>구현</t>
+  </si>
+  <si>
+    <t>테스팅</t>
+  </si>
+  <si>
+    <t>강준희</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>신종훈</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>손성배</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>이영훈</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
+  </si>
+  <si>
+    <t>21.11.09</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>21.11.16</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="27">
+  <fonts count="26">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1917,19 +1916,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
@@ -1994,7 +1980,7 @@
       <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2052,6 +2038,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2122,7 +2114,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2132,7 +2124,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -2147,73 +2139,73 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2229,73 +2221,70 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2307,14 +2296,23 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="79">
+  <dxfs count="90">
     <dxf>
       <fill>
         <patternFill>
@@ -2347,6 +2345,90 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -2359,28 +2441,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2407,6 +2475,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="8" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
@@ -2429,6 +2518,16 @@
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2444,53 +2543,70 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2507,14 +2623,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
+          <bgColor theme="8" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2536,6 +2645,16 @@
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2550,6 +2669,27 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF006100"/>
       </font>
@@ -2560,6 +2700,23 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.79998168889431442"/>
@@ -2577,6 +2734,16 @@
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2650,16 +2817,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.79998168889431442"/>
@@ -2677,82 +2834,6 @@
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3130,6 +3211,9 @@
                 <c:pt idx="4">
                   <c:v>123</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>134</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3226,6 +3310,9 @@
                 <c:pt idx="4">
                   <c:v>29</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3321,6 +3408,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4441,152 +4531,152 @@
       <c r="A1" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="53" t="s">
         <v>138</v>
       </c>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="55" t="s">
-        <v>196</v>
-      </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
+      <c r="B2" s="54" t="s">
+        <v>187</v>
+      </c>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="B3" s="55" t="s">
-        <v>189</v>
-      </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
+      <c r="B3" s="54" t="s">
+        <v>180</v>
+      </c>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="55" t="s">
-        <v>190</v>
-      </c>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
+      <c r="B4" s="54" t="s">
+        <v>181</v>
+      </c>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="56" t="s">
+      <c r="A5" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="B5" s="55" t="s">
-        <v>191</v>
-      </c>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
+      <c r="B5" s="54" t="s">
+        <v>182</v>
+      </c>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="57"/>
-      <c r="B6" s="55" t="s">
-        <v>192</v>
-      </c>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
+      <c r="A6" s="56"/>
+      <c r="B6" s="54" t="s">
+        <v>183</v>
+      </c>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="57"/>
-      <c r="B7" s="55" t="s">
-        <v>193</v>
-      </c>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
+      <c r="A7" s="56"/>
+      <c r="B7" s="54" t="s">
+        <v>184</v>
+      </c>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="57"/>
-      <c r="B8" s="55" t="s">
-        <v>194</v>
-      </c>
-      <c r="C8" s="55"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="55"/>
+      <c r="A8" s="56"/>
+      <c r="B8" s="54" t="s">
+        <v>185</v>
+      </c>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="57"/>
-      <c r="B9" s="55" t="s">
-        <v>195</v>
-      </c>
-      <c r="C9" s="55"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="55"/>
+      <c r="A9" s="56"/>
+      <c r="B9" s="54" t="s">
+        <v>186</v>
+      </c>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="58"/>
-      <c r="B10" s="55"/>
-      <c r="C10" s="55"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="55"/>
+      <c r="A10" s="57"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="54"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="53" t="s">
+      <c r="A13" s="52" t="s">
         <v>124</v>
       </c>
-      <c r="B13" s="53"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="53"/>
+      <c r="B13" s="52"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="52"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="53" t="s">
+      <c r="A14" s="52" t="s">
         <v>125</v>
       </c>
-      <c r="B14" s="53"/>
-      <c r="C14" s="53"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="53"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="53" t="s">
+      <c r="A15" s="52" t="s">
         <v>126</v>
       </c>
-      <c r="B15" s="53"/>
-      <c r="C15" s="53"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="53"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -4605,7 +4695,7 @@
     <mergeCell ref="A5:A10"/>
     <mergeCell ref="B6:G6"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
@@ -4640,11 +4730,11 @@
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:I66"/>
+  <dimension ref="A1:I68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="17.399999999999999"/>
@@ -4690,35 +4780,35 @@
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="46" t="s">
-        <v>186</v>
-      </c>
-      <c r="C2" s="43">
+      <c r="B2" s="45" t="s">
+        <v>177</v>
+      </c>
+      <c r="C2" s="42">
         <v>5</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="D2" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="47" t="s">
+      <c r="E2" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="43" t="s">
+      <c r="F2" s="42" t="s">
         <v>134</v>
       </c>
-      <c r="G2" s="43" t="b">
+      <c r="G2" s="42" t="b">
         <v>0</v>
       </c>
-      <c r="H2" s="43"/>
+      <c r="H2" s="42"/>
       <c r="I2" s="4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="6" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="B3" s="37" t="s">
         <v>139</v>
@@ -4727,10 +4817,10 @@
         <v>2</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>134</v>
@@ -4738,8 +4828,8 @@
       <c r="G3" s="12" t="b">
         <v>1</v>
       </c>
-      <c r="H3" s="50" t="s">
-        <v>210</v>
+      <c r="H3" s="49" t="s">
+        <v>223</v>
       </c>
       <c r="I3" s="4" t="b">
         <v>0</v>
@@ -4747,7 +4837,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="19" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="B4" s="38" t="s">
         <v>140</v>
@@ -4759,16 +4849,16 @@
         <v>5</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="F4" s="19" t="s">
         <v>134</v>
       </c>
       <c r="G4" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" s="50" t="s">
-        <v>209</v>
+        <v>0</v>
+      </c>
+      <c r="H4" s="49" t="s">
+        <v>197</v>
       </c>
       <c r="I4" s="4" t="b">
         <v>0</v>
@@ -4776,10 +4866,10 @@
     </row>
     <row r="5" spans="1:9" ht="18">
       <c r="A5" s="19" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="C5" s="6">
         <v>1</v>
@@ -4788,7 +4878,7 @@
         <v>36</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="F5" s="19" t="s">
         <v>134</v>
@@ -4796,8 +4886,8 @@
       <c r="G5" s="19" t="b">
         <v>1</v>
       </c>
-      <c r="H5" s="50" t="s">
-        <v>210</v>
+      <c r="H5" s="49" t="s">
+        <v>224</v>
       </c>
       <c r="I5" s="4" t="b">
         <v>0</v>
@@ -4805,36 +4895,34 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="19" t="s">
-        <v>212</v>
-      </c>
-      <c r="B6" s="49" t="s">
-        <v>203</v>
+        <v>199</v>
+      </c>
+      <c r="B6" s="48" t="s">
+        <v>194</v>
       </c>
       <c r="C6" s="19">
         <v>3</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="F6" s="19" t="s">
         <v>134</v>
       </c>
       <c r="G6" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="H6" s="50" t="s">
-        <v>197</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" s="49"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="B7" s="62" t="s">
-        <v>216</v>
+        <v>201</v>
+      </c>
+      <c r="B7" s="51" t="s">
+        <v>202</v>
       </c>
       <c r="C7" s="19">
         <v>1</v>
@@ -4843,92 +4931,90 @@
         <v>36</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="F7" s="19" t="s">
         <v>134</v>
       </c>
       <c r="G7" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="H7" s="50" t="s">
-        <v>197</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" s="49"/>
       <c r="I7" s="4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="41" t="s">
-        <v>183</v>
-      </c>
-      <c r="B8" s="44" t="s">
-        <v>142</v>
-      </c>
-      <c r="C8" s="43">
-        <v>8</v>
-      </c>
-      <c r="D8" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="43" t="s">
-        <v>95</v>
-      </c>
-      <c r="F8" s="43" t="s">
+      <c r="A8" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="B8" s="51" t="s">
+        <v>204</v>
+      </c>
+      <c r="C8" s="19">
+        <v>1</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="F8" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="G8" s="43" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" s="43"/>
+      <c r="G8" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" s="49" t="s">
+        <v>188</v>
+      </c>
       <c r="I8" s="4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="B9" s="39" t="s">
-        <v>143</v>
-      </c>
-      <c r="C9" s="6">
-        <v>2</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>200</v>
-      </c>
-      <c r="F9" s="19" t="s">
+      <c r="A9" s="40" t="s">
+        <v>174</v>
+      </c>
+      <c r="B9" s="43" t="s">
+        <v>142</v>
+      </c>
+      <c r="C9" s="42">
+        <v>8</v>
+      </c>
+      <c r="D9" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="F9" s="42" t="s">
         <v>134</v>
       </c>
-      <c r="G9" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9" s="50" t="s">
-        <v>209</v>
-      </c>
+      <c r="G9" s="42" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" s="42"/>
       <c r="I9" s="4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="19" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B10" s="37" t="s">
-        <v>144</v>
+        <v>205</v>
       </c>
       <c r="C10" s="19">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="F10" s="19" t="s">
         <v>134</v>
@@ -4936,26 +5022,26 @@
       <c r="G10" s="19" t="b">
         <v>1</v>
       </c>
-      <c r="H10" s="50" t="s">
-        <v>204</v>
+      <c r="H10" s="49" t="s">
+        <v>221</v>
       </c>
       <c r="I10" s="4"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="19" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="B11" s="37" t="s">
-        <v>145</v>
-      </c>
-      <c r="C11" s="6">
+        <v>206</v>
+      </c>
+      <c r="C11" s="19">
         <v>3</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="19" t="s">
         <v>5</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="F11" s="19" t="s">
         <v>134</v>
@@ -4963,106 +5049,106 @@
       <c r="G11" s="19" t="b">
         <v>1</v>
       </c>
-      <c r="H11" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="I11" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="H11" s="49" t="s">
+        <v>223</v>
+      </c>
+      <c r="I11" s="4"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="41" t="s">
-        <v>184</v>
-      </c>
-      <c r="B12" s="44" t="s">
-        <v>147</v>
-      </c>
-      <c r="C12" s="43">
-        <v>13</v>
-      </c>
-      <c r="D12" s="43" t="s">
-        <v>188</v>
-      </c>
-      <c r="E12" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="43" t="s">
+      <c r="A12" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="B12" s="37" t="s">
+        <v>211</v>
+      </c>
+      <c r="C12" s="6">
+        <v>5</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="F12" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="G12" s="43" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12" s="43"/>
+      <c r="G12" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>222</v>
+      </c>
       <c r="I12" s="4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="B13" s="39" t="s">
-        <v>148</v>
+        <v>209</v>
+      </c>
+      <c r="B13" s="37" t="s">
+        <v>210</v>
       </c>
       <c r="C13" s="19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="48" t="s">
-        <v>11</v>
+        <v>5</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>191</v>
       </c>
       <c r="F13" s="19" t="s">
         <v>134</v>
       </c>
       <c r="G13" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" s="49"/>
+      <c r="I13" s="4"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="40" t="s">
+        <v>175</v>
+      </c>
+      <c r="B14" s="43" t="s">
+        <v>143</v>
+      </c>
+      <c r="C14" s="42">
+        <v>13</v>
+      </c>
+      <c r="D14" s="42" t="s">
+        <v>179</v>
+      </c>
+      <c r="E14" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="42" t="s">
+        <v>134</v>
+      </c>
+      <c r="G14" s="42" t="b">
         <v>0</v>
       </c>
-      <c r="H13" s="19"/>
-      <c r="I13" s="4" t="b">
+      <c r="H14" s="42"/>
+      <c r="I14" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="B14" s="37" t="s">
-        <v>149</v>
-      </c>
-      <c r="C14" s="19">
-        <v>3</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="E14" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="G14" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14" s="19"/>
-      <c r="I14" s="4"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="19" t="s">
-        <v>154</v>
+        <v>213</v>
       </c>
       <c r="B15" s="37" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C15" s="19">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="E15" s="48" t="s">
+        <v>179</v>
+      </c>
+      <c r="E15" s="47" t="s">
         <v>11</v>
       </c>
       <c r="F15" s="19" t="s">
@@ -5072,24 +5158,22 @@
         <v>0</v>
       </c>
       <c r="H15" s="19"/>
-      <c r="I15" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="I15" s="4"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="19" t="s">
-        <v>155</v>
+        <v>214</v>
       </c>
       <c r="B16" s="37" t="s">
-        <v>151</v>
-      </c>
-      <c r="C16" s="6">
-        <v>2</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16" s="48" t="s">
+        <v>145</v>
+      </c>
+      <c r="C16" s="19">
+        <v>5</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="E16" s="47" t="s">
         <v>11</v>
       </c>
       <c r="F16" s="19" t="s">
@@ -5098,26 +5182,26 @@
       <c r="G16" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="H16" s="6"/>
+      <c r="H16" s="19"/>
       <c r="I16" s="4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="51" t="s">
-        <v>208</v>
-      </c>
-      <c r="B17" s="52" t="s">
-        <v>207</v>
-      </c>
-      <c r="C17" s="19">
+    <row r="17" spans="1:9" s="64" customFormat="1">
+      <c r="A17" s="61" t="s">
+        <v>215</v>
+      </c>
+      <c r="B17" s="62" t="s">
+        <v>212</v>
+      </c>
+      <c r="C17" s="61">
         <v>3</v>
       </c>
-      <c r="D17" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="48" t="s">
-        <v>95</v>
+      <c r="D17" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="47" t="s">
+        <v>11</v>
       </c>
       <c r="F17" s="19" t="s">
         <v>134</v>
@@ -5125,110 +5209,108 @@
       <c r="G17" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="4"/>
+      <c r="H17" s="61"/>
+      <c r="I17" s="63"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="41" t="s">
-        <v>185</v>
-      </c>
-      <c r="B18" s="44" t="s">
-        <v>141</v>
-      </c>
-      <c r="C18" s="43">
-        <v>20</v>
-      </c>
-      <c r="D18" s="43" t="s">
-        <v>188</v>
+      <c r="A18" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="B18" s="37" t="s">
+        <v>146</v>
+      </c>
+      <c r="C18" s="6">
+        <v>2</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>36</v>
       </c>
       <c r="E18" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="F18" s="43" t="s">
+      <c r="F18" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="G18" s="43" t="b">
+      <c r="G18" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="H18" s="43"/>
+      <c r="H18" s="6"/>
       <c r="I18" s="4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="19" t="s">
-        <v>163</v>
-      </c>
-      <c r="B19" s="37" t="s">
-        <v>156</v>
-      </c>
-      <c r="C19" s="6">
-        <v>1</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E19" s="48" t="s">
-        <v>11</v>
+        <v>217</v>
+      </c>
+      <c r="B19" s="50" t="s">
+        <v>196</v>
+      </c>
+      <c r="C19" s="19">
+        <v>3</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="47" t="s">
+        <v>95</v>
       </c>
       <c r="F19" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="G19" s="12" t="b">
+      <c r="G19" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="H19" s="6"/>
-      <c r="I19" s="4" t="b">
+      <c r="H19" s="19"/>
+      <c r="I19" s="4"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="40" t="s">
+        <v>176</v>
+      </c>
+      <c r="B20" s="43" t="s">
+        <v>141</v>
+      </c>
+      <c r="C20" s="42">
+        <v>20</v>
+      </c>
+      <c r="D20" s="42" t="s">
+        <v>179</v>
+      </c>
+      <c r="E20" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="42" t="s">
+        <v>134</v>
+      </c>
+      <c r="G20" s="42" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="19" t="s">
-        <v>164</v>
-      </c>
-      <c r="B20" s="37" t="s">
-        <v>157</v>
-      </c>
-      <c r="C20" s="6">
-        <v>5</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="E20" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="G20" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20" s="6"/>
+      <c r="H20" s="42"/>
       <c r="I20" s="4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="19" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="B21" s="37" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="C21" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E21" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="47" t="s">
         <v>11</v>
       </c>
       <c r="F21" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="G21" s="19" t="b">
+      <c r="G21" s="12" t="b">
         <v>0</v>
       </c>
       <c r="H21" s="6"/>
@@ -5238,18 +5320,18 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="19" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="B22" s="37" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="C22" s="6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E22" s="48" t="s">
+        <v>179</v>
+      </c>
+      <c r="E22" s="47" t="s">
         <v>11</v>
       </c>
       <c r="F22" s="19" t="s">
@@ -5265,18 +5347,18 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="19" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="B23" s="37" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="C23" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E23" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" s="47" t="s">
         <v>11</v>
       </c>
       <c r="F23" s="19" t="s">
@@ -5290,20 +5372,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15" customHeight="1">
+    <row r="24" spans="1:9">
       <c r="A24" s="19" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="B24" s="37" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="C24" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="E24" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="E24" s="47" t="s">
         <v>11</v>
       </c>
       <c r="F24" s="19" t="s">
@@ -5318,52 +5400,52 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="41" t="s">
-        <v>187</v>
-      </c>
-      <c r="B25" s="42" t="s">
-        <v>169</v>
-      </c>
-      <c r="C25" s="43">
-        <v>13</v>
-      </c>
-      <c r="D25" s="43" t="s">
+      <c r="A25" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="B25" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="C25" s="6">
+        <v>2</v>
+      </c>
+      <c r="D25" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E25" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="F25" s="43" t="s">
+      <c r="F25" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="G25" s="43" t="b">
+      <c r="G25" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="H25" s="43"/>
+      <c r="H25" s="6"/>
       <c r="I25" s="4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="15" customHeight="1">
-      <c r="A26" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="B26" s="40" t="s">
-        <v>170</v>
+      <c r="A26" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="B26" s="37" t="s">
+        <v>152</v>
       </c>
       <c r="C26" s="6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E26" s="48" t="s">
+        <v>179</v>
+      </c>
+      <c r="E26" s="47" t="s">
         <v>11</v>
       </c>
       <c r="F26" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="G26" s="12" t="b">
+      <c r="G26" s="19" t="b">
         <v>0</v>
       </c>
       <c r="H26" s="6"/>
@@ -5372,52 +5454,52 @@
       </c>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="B27" s="37" t="s">
-        <v>172</v>
-      </c>
-      <c r="C27" s="6">
-        <v>2</v>
-      </c>
-      <c r="D27" s="6" t="s">
+      <c r="A27" s="40" t="s">
+        <v>178</v>
+      </c>
+      <c r="B27" s="41" t="s">
+        <v>160</v>
+      </c>
+      <c r="C27" s="42">
+        <v>13</v>
+      </c>
+      <c r="D27" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="E27" s="48" t="s">
+      <c r="E27" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="F27" s="19" t="s">
+      <c r="F27" s="42" t="s">
         <v>134</v>
       </c>
-      <c r="G27" s="19" t="b">
+      <c r="G27" s="42" t="b">
         <v>0</v>
       </c>
-      <c r="H27" s="6"/>
+      <c r="H27" s="42"/>
       <c r="I27" s="4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="15" customHeight="1">
-      <c r="A28" s="19" t="s">
-        <v>178</v>
-      </c>
-      <c r="B28" s="37" t="s">
-        <v>173</v>
+      <c r="A28" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B28" s="39" t="s">
+        <v>161</v>
       </c>
       <c r="C28" s="6">
+        <v>2</v>
+      </c>
+      <c r="D28" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D28" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="E28" s="48" t="s">
+      <c r="E28" s="47" t="s">
         <v>11</v>
       </c>
       <c r="F28" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="G28" s="19" t="b">
+      <c r="G28" s="12" t="b">
         <v>0</v>
       </c>
       <c r="H28" s="6"/>
@@ -5425,12 +5507,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15" customHeight="1">
+    <row r="29" spans="1:9">
       <c r="A29" s="19" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="B29" s="37" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="C29" s="6">
         <v>2</v>
@@ -5438,7 +5520,7 @@
       <c r="D29" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E29" s="48" t="s">
+      <c r="E29" s="47" t="s">
         <v>11</v>
       </c>
       <c r="F29" s="19" t="s">
@@ -5452,20 +5534,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" ht="15" customHeight="1">
       <c r="A30" s="19" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="B30" s="37" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="C30" s="6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E30" s="48" t="s">
+        <v>179</v>
+      </c>
+      <c r="E30" s="47" t="s">
         <v>11</v>
       </c>
       <c r="F30" s="19" t="s">
@@ -5479,20 +5561,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" ht="15" customHeight="1">
       <c r="A31" s="19" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="B31" s="37" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="C31" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="E31" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="E31" s="47" t="s">
         <v>11</v>
       </c>
       <c r="F31" s="19" t="s">
@@ -5506,27 +5588,55 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15" customHeight="1">
-      <c r="A32" s="6"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="12"/>
+    <row r="32" spans="1:9">
+      <c r="A32" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="B32" s="37" t="s">
+        <v>166</v>
+      </c>
+      <c r="C32" s="6">
+        <v>2</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="G32" s="19" t="b">
+        <v>0</v>
+      </c>
       <c r="H32" s="6"/>
       <c r="I32" s="4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15" customHeight="1">
-      <c r="A33" s="6"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="12"/>
+    <row r="33" spans="1:9">
+      <c r="A33" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="B33" s="37" t="s">
+        <v>167</v>
+      </c>
+      <c r="C33" s="6">
+        <v>3</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="E33" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="G33" s="19" t="b">
+        <v>0</v>
+      </c>
       <c r="H33" s="6"/>
       <c r="I33" s="4" t="b">
         <v>0</v>
@@ -5558,7 +5668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" ht="15" customHeight="1">
       <c r="A36" s="6"/>
       <c r="B36" s="5"/>
       <c r="C36" s="6"/>
@@ -5571,7 +5681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" ht="15" customHeight="1">
       <c r="A37" s="6"/>
       <c r="B37" s="5"/>
       <c r="C37" s="6"/>
@@ -5580,7 +5690,9 @@
       <c r="F37" s="6"/>
       <c r="G37" s="12"/>
       <c r="H37" s="6"/>
-      <c r="I37" s="4"/>
+      <c r="I37" s="4" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="6"/>
@@ -5591,7 +5703,9 @@
       <c r="F38" s="6"/>
       <c r="G38" s="12"/>
       <c r="H38" s="6"/>
-      <c r="I38" s="4"/>
+      <c r="I38" s="4" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="6"/>
@@ -5748,164 +5862,186 @@
       <c r="I52" s="4"/>
     </row>
     <row r="53" spans="1:9">
-      <c r="B53" s="26" t="s">
+      <c r="A53" s="6"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="12"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="4"/>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="6"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="6"/>
+      <c r="I54" s="4"/>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="B55" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="C53" s="25">
-        <f>SUM(C2:C52)</f>
-        <v>124</v>
-      </c>
-      <c r="D53" s="20" t="s">
+      <c r="C55" s="25">
+        <f>SUM(C2:C54)</f>
+        <v>134</v>
+      </c>
+      <c r="D55" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="E53" s="20">
-        <f>SUMIF(E2:E52, "완료", C2:C52)</f>
+      <c r="E55" s="20">
+        <f>SUMIF(E2:E54, "완료", C2:C54)</f>
+        <v>4</v>
+      </c>
+      <c r="F55" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="G55" s="22">
+        <f>SUMIF(G2:G54,TRUE,C2:C54)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="31.2" customHeight="1">
+      <c r="B56" s="16"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="E56" s="23">
+        <f>SUMIFS(C2:C54, E2:E54, "완료", G2:G54, TRUE)</f>
         <v>0</v>
       </c>
-      <c r="F53" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="G53" s="22">
-        <f>SUMIF(G2:G52,TRUE,C2:C52)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="31.2" customHeight="1">
-      <c r="B54" s="16"/>
-      <c r="C54" s="13"/>
-      <c r="D54" s="30" t="s">
-        <v>109</v>
-      </c>
-      <c r="E54" s="23">
-        <f>SUMIFS(C2:C52, E2:E52, "완료", G2:G52, TRUE)</f>
-        <v>0</v>
-      </c>
-      <c r="F54" s="14"/>
-      <c r="G54" s="13"/>
-    </row>
-    <row r="55" spans="1:9">
-      <c r="B55" s="36" t="s">
+      <c r="F56" s="14"/>
+      <c r="G56" s="13"/>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="B57" s="36" t="s">
         <v>133</v>
       </c>
-      <c r="C55" s="25">
-        <f>COUNTA(A2:A52)-COUNTIF(C2:C52, 0)-COUNTIF(C2:C52, -1)</f>
-        <v>30</v>
-      </c>
-      <c r="D55" s="13"/>
-      <c r="E55" s="13"/>
-      <c r="F55" s="24" t="s">
+      <c r="C57" s="25">
+        <f>COUNTA(A2:A54)-COUNTIF(C2:C54, 0)-COUNTIF(C2:C54, -1)</f>
+        <v>32</v>
+      </c>
+      <c r="D57" s="13"/>
+      <c r="E57" s="13"/>
+      <c r="F57" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="G55" s="25">
-        <f>G53+E53-E54</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
-      <c r="A56" s="59" t="s">
+      <c r="G57" s="25">
+        <f>G55+E55-E56</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="B56" s="59"/>
-      <c r="C56" s="59"/>
-      <c r="D56" s="59"/>
-      <c r="E56" s="59"/>
-      <c r="F56" s="59"/>
-      <c r="G56" s="59"/>
-      <c r="H56" s="59"/>
-      <c r="I56" s="59"/>
-    </row>
-    <row r="57" spans="1:9">
-      <c r="A57" s="60" t="s">
+      <c r="B58" s="58"/>
+      <c r="C58" s="58"/>
+      <c r="D58" s="58"/>
+      <c r="E58" s="58"/>
+      <c r="F58" s="58"/>
+      <c r="G58" s="58"/>
+      <c r="H58" s="58"/>
+      <c r="I58" s="58"/>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="B57" s="60"/>
-      <c r="C57" s="60"/>
-      <c r="D57" s="60"/>
-      <c r="E57" s="60"/>
-      <c r="F57" s="60"/>
-      <c r="G57" s="60"/>
-      <c r="H57" s="60"/>
-      <c r="I57" s="60"/>
-    </row>
-    <row r="59" spans="1:9">
-      <c r="B59" s="17" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
-      <c r="B60" s="17" t="s">
-        <v>102</v>
-      </c>
+      <c r="B59" s="59"/>
+      <c r="C59" s="59"/>
+      <c r="D59" s="59"/>
+      <c r="E59" s="59"/>
+      <c r="F59" s="59"/>
+      <c r="G59" s="59"/>
+      <c r="H59" s="59"/>
+      <c r="I59" s="59"/>
     </row>
     <row r="61" spans="1:9">
       <c r="B61" s="17" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="B62" s="17" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="B63" s="17" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="B64" s="17" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2">
+      <c r="B65" s="17" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="64" spans="1:9">
-      <c r="B64" s="29"/>
-    </row>
-    <row r="65" spans="2:2">
-      <c r="B65" s="27" t="s">
+    <row r="66" spans="2:2">
+      <c r="B66" s="29"/>
+    </row>
+    <row r="67" spans="2:2">
+      <c r="B67" s="27" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="66" spans="2:2" ht="15" customHeight="1">
-      <c r="B66" s="28" t="s">
+    <row r="68" spans="2:2" ht="15" customHeight="1">
+      <c r="B68" s="28" t="s">
         <v>108</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I44" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A1:I46" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="2">
-    <mergeCell ref="A56:I56"/>
-    <mergeCell ref="A57:I57"/>
+    <mergeCell ref="A58:I58"/>
+    <mergeCell ref="A59:I59"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="A9:D9 A11:D11 C10:D10 A9:A11 B19:I24 A26:I52 A2:I3 B15:D16 A14:A16 C17:D17 E13:F17 G14:I17 G9:I11 A6 A4:F5 H4:I5 G3:G5 E3:E5 C6:H6">
-    <cfRule type="expression" dxfId="78" priority="105">
+  <phoneticPr fontId="3" type="noConversion"/>
+  <conditionalFormatting sqref="A12:D12 C10:D11 B21:I26 A28:I54 A2:I3 B16:D18 C19:D19 A6 A4:F5 H4:I5 G3:G5 E3:E5 C6:H6 A10:A12 A15:A19 E10:I12 E15:I19">
+    <cfRule type="expression" dxfId="89" priority="143">
       <formula>$C2=""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="77" priority="106">
+    <cfRule type="expression" dxfId="88" priority="144">
       <formula>$C2=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="107">
+    <cfRule type="expression" dxfId="87" priority="145">
       <formula>$C2=-1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I9:I11 I16:I17 I19:I24 I26:I52 I2:I6">
-    <cfRule type="cellIs" dxfId="75" priority="88" operator="equal">
+  <conditionalFormatting sqref="I21:I26 I28:I54 I2:I6 I10:I12 I15:I19">
+    <cfRule type="cellIs" dxfId="86" priority="126" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A8:I8">
-    <cfRule type="expression" dxfId="74" priority="78">
-      <formula>$C8=""</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="73" priority="79">
-      <formula>$C8=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="72" priority="80">
-      <formula>$C8=-1</formula>
+  <conditionalFormatting sqref="A9:I9">
+    <cfRule type="expression" dxfId="85" priority="116">
+      <formula>$C9=""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="84" priority="117">
+      <formula>$C9=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="83" priority="118">
+      <formula>$C9=-1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="71" priority="77" operator="equal">
+  <conditionalFormatting sqref="I9">
+    <cfRule type="cellIs" dxfId="82" priority="115" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C8">
-    <cfRule type="dataBar" priority="81">
+  <conditionalFormatting sqref="C9">
+    <cfRule type="dataBar" priority="119">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5918,14 +6054,14 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="70" priority="82"/>
+  <conditionalFormatting sqref="A9">
+    <cfRule type="duplicateValues" dxfId="81" priority="120"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G8">
-    <cfRule type="cellIs" dxfId="69" priority="83" operator="equal">
+  <conditionalFormatting sqref="G9">
+    <cfRule type="cellIs" dxfId="80" priority="121" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="84">
+    <cfRule type="dataBar" priority="122">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5938,35 +6074,35 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B10">
-    <cfRule type="expression" dxfId="68" priority="275">
+  <conditionalFormatting sqref="B10:B11">
+    <cfRule type="expression" dxfId="79" priority="313">
       <formula>#REF!=""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="276">
+    <cfRule type="expression" dxfId="78" priority="314">
       <formula>#REF!=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="277">
+    <cfRule type="expression" dxfId="77" priority="315">
       <formula>#REF!=-1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A12:D12 F12:I12">
-    <cfRule type="expression" dxfId="65" priority="70">
-      <formula>$C12=""</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="64" priority="71">
-      <formula>$C12=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="63" priority="72">
-      <formula>$C12=-1</formula>
+  <conditionalFormatting sqref="A14:D14 F14:I14">
+    <cfRule type="expression" dxfId="76" priority="108">
+      <formula>$C14=""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="75" priority="109">
+      <formula>$C14=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="74" priority="110">
+      <formula>$C14=-1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I12">
-    <cfRule type="cellIs" dxfId="62" priority="69" operator="equal">
+  <conditionalFormatting sqref="I14">
+    <cfRule type="cellIs" dxfId="73" priority="107" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C12">
-    <cfRule type="dataBar" priority="73">
+  <conditionalFormatting sqref="C14">
+    <cfRule type="dataBar" priority="111">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5979,14 +6115,14 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="61" priority="74"/>
+  <conditionalFormatting sqref="A14">
+    <cfRule type="duplicateValues" dxfId="72" priority="112"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G12">
-    <cfRule type="cellIs" dxfId="60" priority="75" operator="equal">
+  <conditionalFormatting sqref="G14">
+    <cfRule type="cellIs" dxfId="71" priority="113" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="76">
+    <cfRule type="dataBar" priority="114">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5999,24 +6135,311 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A13:D13 C14:D14 G13:I13">
-    <cfRule type="expression" dxfId="59" priority="59">
-      <formula>$C13=""</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="58" priority="60">
-      <formula>$C13=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="57" priority="61">
-      <formula>$C13=-1</formula>
+  <conditionalFormatting sqref="C15:D15">
+    <cfRule type="expression" dxfId="70" priority="97">
+      <formula>$C15=""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="69" priority="98">
+      <formula>$C15=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="68" priority="99">
+      <formula>$C15=-1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I17">
-    <cfRule type="cellIs" dxfId="56" priority="58" operator="equal">
+  <conditionalFormatting sqref="B15">
+    <cfRule type="expression" dxfId="67" priority="104">
+      <formula>#REF!=""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="66" priority="105">
+      <formula>#REF!=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="65" priority="106">
+      <formula>#REF!=-1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A20:D20 F20:I20">
+    <cfRule type="expression" dxfId="64" priority="89">
+      <formula>$C20=""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="63" priority="90">
+      <formula>$C20=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="62" priority="91">
+      <formula>$C20=-1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I20">
+    <cfRule type="cellIs" dxfId="61" priority="88" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C13:C15">
-    <cfRule type="dataBar" priority="62">
+  <conditionalFormatting sqref="C20">
+    <cfRule type="dataBar" priority="92">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{D48B238B-57E3-4056-8A54-8209954CA86A}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A20">
+    <cfRule type="duplicateValues" dxfId="60" priority="93"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G20">
+    <cfRule type="cellIs" dxfId="59" priority="94" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="dataBar" priority="95">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{971392BE-A197-4FAB-970A-A24FC38D6B6A}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A21:A26">
+    <cfRule type="expression" dxfId="58" priority="84">
+      <formula>$C21=""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="57" priority="85">
+      <formula>$C21=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="56" priority="86">
+      <formula>$C21=-1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A21:A26">
+    <cfRule type="duplicateValues" dxfId="55" priority="87"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A27:D27 F27:I27">
+    <cfRule type="expression" dxfId="54" priority="77">
+      <formula>$C27=""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="53" priority="78">
+      <formula>$C27=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="52" priority="79">
+      <formula>$C27=-1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I27">
+    <cfRule type="cellIs" dxfId="51" priority="76" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C27">
+    <cfRule type="dataBar" priority="80">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{94E884A5-A9A4-47FE-A6C2-3B5556818733}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A27">
+    <cfRule type="duplicateValues" dxfId="50" priority="81"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G27">
+    <cfRule type="cellIs" dxfId="49" priority="82" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="dataBar" priority="83">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{283EC6DE-4EF4-443A-BA0B-43A447604A3A}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E27 E20 E14">
+    <cfRule type="expression" dxfId="48" priority="70">
+      <formula>$C14=""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="47" priority="71">
+      <formula>$C14=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="46" priority="72">
+      <formula>$C14=-1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21:C26 C2:C5 C18:C19 C10:C12 C28:C54">
+    <cfRule type="dataBar" priority="324">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{FEFB8DED-7A05-47F3-A26B-D82B85A610CE}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6">
+    <cfRule type="dataBar" priority="66">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{A6CE1503-FB01-48A5-9A32-D5A4CD6AF044}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A28:A54 A10:A12 A2:A6">
+    <cfRule type="duplicateValues" dxfId="45" priority="407"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G21:G26 G28:G54 G2:G6 G10:G12">
+    <cfRule type="cellIs" dxfId="44" priority="411" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="dataBar" priority="412">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{9FA1081B-1BCC-4393-A4D4-E2D4E0F10E5F}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A7:B7 D7:I7 A8">
+    <cfRule type="expression" dxfId="43" priority="44">
+      <formula>$C7=""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="42" priority="45">
+      <formula>$C7=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="41" priority="46">
+      <formula>$C7=-1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I7">
+    <cfRule type="cellIs" dxfId="40" priority="43" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A7:A8">
+    <cfRule type="duplicateValues" dxfId="39" priority="48"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7">
+    <cfRule type="cellIs" dxfId="38" priority="49" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="dataBar" priority="50">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{6104C523-9F46-467E-B1A9-DE1D3BAA884C}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C7">
+    <cfRule type="expression" dxfId="37" priority="31">
+      <formula>$C7=""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="36" priority="32">
+      <formula>$C7=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="35" priority="33">
+      <formula>$C7=-1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C7">
+    <cfRule type="dataBar" priority="34">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{056A117C-264E-477A-9110-BC7F28789041}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8:I8">
+    <cfRule type="expression" dxfId="34" priority="24">
+      <formula>$C8=""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="25">
+      <formula>$C8=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="32" priority="26">
+      <formula>$C8=-1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I8">
+    <cfRule type="cellIs" dxfId="31" priority="23" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8">
+    <cfRule type="dataBar" priority="27">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{66F6D4F9-42C2-4B48-9159-1E22DB590403}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8">
+    <cfRule type="cellIs" dxfId="30" priority="29" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="dataBar" priority="30">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{A37CD9C1-C376-4E1E-B0A8-67BF68FA11FC}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15:C17">
+    <cfRule type="dataBar" priority="417">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6029,186 +6452,11 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B14">
-    <cfRule type="expression" dxfId="55" priority="66">
-      <formula>#REF!=""</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="54" priority="67">
-      <formula>#REF!=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="53" priority="68">
-      <formula>#REF!=-1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A18:D18 F18:I18">
-    <cfRule type="expression" dxfId="52" priority="51">
-      <formula>$C18=""</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="51" priority="52">
-      <formula>$C18=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="50" priority="53">
-      <formula>$C18=-1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I18">
-    <cfRule type="cellIs" dxfId="49" priority="50" operator="equal">
+  <conditionalFormatting sqref="G15:G19">
+    <cfRule type="cellIs" dxfId="29" priority="422" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C18">
-    <cfRule type="dataBar" priority="54">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{D48B238B-57E3-4056-8A54-8209954CA86A}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A18">
-    <cfRule type="duplicateValues" dxfId="48" priority="55"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G18">
-    <cfRule type="cellIs" dxfId="47" priority="56" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-    <cfRule type="dataBar" priority="57">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFB628"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{971392BE-A197-4FAB-970A-A24FC38D6B6A}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A19:A24">
-    <cfRule type="expression" dxfId="46" priority="46">
-      <formula>$C19=""</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="45" priority="47">
-      <formula>$C19=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="44" priority="48">
-      <formula>$C19=-1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A19:A24">
-    <cfRule type="duplicateValues" dxfId="43" priority="49"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A25:D25 F25:I25">
-    <cfRule type="expression" dxfId="42" priority="39">
-      <formula>$C25=""</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="41" priority="40">
-      <formula>$C25=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="40" priority="41">
-      <formula>$C25=-1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I25">
-    <cfRule type="cellIs" dxfId="39" priority="38" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C25">
-    <cfRule type="dataBar" priority="42">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{94E884A5-A9A4-47FE-A6C2-3B5556818733}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A25">
-    <cfRule type="duplicateValues" dxfId="38" priority="43"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G25">
-    <cfRule type="cellIs" dxfId="37" priority="44" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-    <cfRule type="dataBar" priority="45">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFB628"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{283EC6DE-4EF4-443A-BA0B-43A447604A3A}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E25 E18 E12">
-    <cfRule type="expression" dxfId="36" priority="32">
-      <formula>$C12=""</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="35" priority="33">
-      <formula>$C12=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="34" priority="34">
-      <formula>$C12=-1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F9:F11">
-    <cfRule type="expression" dxfId="33" priority="29">
-      <formula>$C9=""</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="32" priority="30">
-      <formula>$C9=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="31" priority="31">
-      <formula>$C9=-1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C19:C24 C2:C5 C16:C17 C9:C11 C26:C52">
-    <cfRule type="dataBar" priority="286">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{FEFB8DED-7A05-47F3-A26B-D82B85A610CE}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C6">
-    <cfRule type="dataBar" priority="28">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{A6CE1503-FB01-48A5-9A32-D5A4CD6AF044}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G13:G17">
-    <cfRule type="cellIs" dxfId="30" priority="325" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-    <cfRule type="dataBar" priority="326">
+    <cfRule type="dataBar" priority="423">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6221,28 +6469,80 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A13:A16">
-    <cfRule type="duplicateValues" dxfId="29" priority="342"/>
+  <conditionalFormatting sqref="A15:A19">
+    <cfRule type="duplicateValues" dxfId="28" priority="424"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E9:E11">
-    <cfRule type="expression" dxfId="28" priority="13">
-      <formula>$C9=""</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="27" priority="14">
-      <formula>$C9=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="26" priority="15">
-      <formula>$C9=-1</formula>
+  <conditionalFormatting sqref="A13 C13:D13 H13:I13">
+    <cfRule type="expression" dxfId="27" priority="13">
+      <formula>$C13=""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="14">
+      <formula>$C13=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="25" priority="15">
+      <formula>$C13=-1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A26:A52 A9:A11 A2:A6">
-    <cfRule type="duplicateValues" dxfId="16" priority="369"/>
+  <conditionalFormatting sqref="I13">
+    <cfRule type="cellIs" dxfId="24" priority="12" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G19:G24 G26:G52 G2:G6 G9:G11">
-    <cfRule type="cellIs" dxfId="15" priority="373" operator="equal">
+  <conditionalFormatting sqref="B13">
+    <cfRule type="expression" dxfId="23" priority="16">
+      <formula>#REF!=""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="17">
+      <formula>#REF!=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="18">
+      <formula>#REF!=-1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C13">
+    <cfRule type="dataBar" priority="19">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{B7E3BABB-D070-4AB4-9BB0-EDC1AF865EED}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A13">
+    <cfRule type="duplicateValues" dxfId="20" priority="20"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13">
+    <cfRule type="expression" dxfId="9" priority="9">
+      <formula>$C13=""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="10">
+      <formula>$C13=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="11">
+      <formula>$C13=-1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F13">
+    <cfRule type="expression" dxfId="6" priority="6">
+      <formula>$C13=""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="7">
+      <formula>$C13=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="8">
+      <formula>$C13=-1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G11 G13">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="374">
+    <cfRule type="dataBar" priority="5">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6250,70 +6550,20 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9FA1081B-1BCC-4393-A4D4-E2D4E0F10E5F}</x14:id>
+          <x14:id>{CC0CD253-579E-4085-81FB-6CA13A5993BB}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A7:B7 D7:I7">
-    <cfRule type="expression" dxfId="8" priority="6">
-      <formula>$C7=""</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="7" priority="7">
-      <formula>$C7=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="8">
-      <formula>$C7=-1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="4" priority="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G7">
-    <cfRule type="cellIs" dxfId="3" priority="11" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-    <cfRule type="dataBar" priority="12">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFB628"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6104C523-9F46-467E-B1A9-DE1D3BAA884C}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C7">
+  <conditionalFormatting sqref="G13">
     <cfRule type="expression" dxfId="2" priority="1">
-      <formula>$C7=""</formula>
+      <formula>$C13=""</formula>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$C7=0</formula>
+      <formula>$C13=0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="3">
-      <formula>$C7=-1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C7">
-    <cfRule type="dataBar" priority="4">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{056A117C-264E-477A-9110-BC7F28789041}</x14:id>
-        </ext>
-      </extLst>
+      <formula>$C13=-1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6332,7 +6582,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C8</xm:sqref>
+          <xm:sqref>C9</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{0EC07B78-B3B6-40DF-B78E-A5EECDB52305}">
@@ -6345,7 +6595,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G8</xm:sqref>
+          <xm:sqref>G9</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{01784E3E-3576-43C2-B512-518C76191FEA}">
@@ -6358,7 +6608,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C12</xm:sqref>
+          <xm:sqref>C14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{5478E603-E048-4710-B528-150BA44F971C}">
@@ -6371,20 +6621,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G12</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{39A1B54E-577B-4CC6-B3C0-3D06C9F77651}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>C13:C15</xm:sqref>
+          <xm:sqref>G14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{D48B238B-57E3-4056-8A54-8209954CA86A}">
@@ -6397,7 +6634,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C18</xm:sqref>
+          <xm:sqref>C20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{971392BE-A197-4FAB-970A-A24FC38D6B6A}">
@@ -6410,7 +6647,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G18</xm:sqref>
+          <xm:sqref>G20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{94E884A5-A9A4-47FE-A6C2-3B5556818733}">
@@ -6423,7 +6660,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C25</xm:sqref>
+          <xm:sqref>C27</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{283EC6DE-4EF4-443A-BA0B-43A447604A3A}">
@@ -6436,7 +6673,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G25</xm:sqref>
+          <xm:sqref>G27</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{FEFB8DED-7A05-47F3-A26B-D82B85A610CE}">
@@ -6449,7 +6686,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C19:C24 C2:C5 C16:C17 C9:C11 C26:C52</xm:sqref>
+          <xm:sqref>C21:C26 C2:C5 C18:C19 C10:C12 C28:C54</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{A6CE1503-FB01-48A5-9A32-D5A4CD6AF044}">
@@ -6465,19 +6702,6 @@
           <xm:sqref>C6</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{0849FD60-15E4-40E1-929A-966625B1D37D}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FFFFB628"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>G13:G17</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{9FA1081B-1BCC-4393-A4D4-E2D4E0F10E5F}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
@@ -6488,7 +6712,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G19:G24 G26:G52 G2:G6 G9:G11</xm:sqref>
+          <xm:sqref>G21:G26 G28:G54 G2:G6 G10:G12</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{6104C523-9F46-467E-B1A9-DE1D3BAA884C}">
@@ -6516,6 +6740,84 @@
           </x14:cfRule>
           <xm:sqref>C7</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{66F6D4F9-42C2-4B48-9159-1E22DB590403}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C8</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{A37CD9C1-C376-4E1E-B0A8-67BF68FA11FC}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFFFB628"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G8</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{39A1B54E-577B-4CC6-B3C0-3D06C9F77651}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C15:C17</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{0849FD60-15E4-40E1-929A-966625B1D37D}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFFFB628"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G15:G19</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{B7E3BABB-D070-4AB4-9BB0-EDC1AF865EED}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C13</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{CC0CD253-579E-4085-81FB-6CA13A5993BB}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFFFB628"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G11 G13</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -6524,37 +6826,37 @@
           <x14:formula1>
             <xm:f>도구!$C$2:$C$4</xm:f>
           </x14:formula1>
-          <xm:sqref>D58</xm:sqref>
+          <xm:sqref>D60</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="반복 대상" prompt="이번 반복 주기에 완료하려는 요구사항이면 TRUE를, 아니면 FALSE를 선택하세요." xr:uid="{00000000-0002-0000-0100-000002000000}">
           <x14:formula1>
             <xm:f>도구!$I$2:$I$3</xm:f>
           </x14:formula1>
-          <xm:sqref>I2:I52</xm:sqref>
+          <xm:sqref>I2:I54</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="개발 단계" prompt="현재 진행중인 단계를 의미합니다." xr:uid="{00000000-0002-0000-0100-000003000000}">
           <x14:formula1>
             <xm:f>도구!$E$2:$E$7</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E52</xm:sqref>
+          <xm:sqref>E2:E54</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="우선순위" prompt="상, 중, 하로 선택하세요." xr:uid="{00000000-0002-0000-0100-000004000000}">
           <x14:formula1>
             <xm:f>도구!$C$2:$C$4</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D52</xm:sqref>
+          <xm:sqref>D2:D54</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="반복 대상" prompt="이번 주에 개발하려는 기능 요구사항을 TRUE로 선택하면 됩니다. 스크럼처럼 반복 주기를 2주로 하는 경우 2주간 반복 대상을 동일하게 유지하면 됩니다._x000a_" xr:uid="{00000000-0002-0000-0100-000005000000}">
           <x14:formula1>
             <xm:f>도구!$I$2:$I$3</xm:f>
           </x14:formula1>
-          <xm:sqref>G2:G52</xm:sqref>
+          <xm:sqref>G2:G54</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="추정치(일)" prompt="기능 요구사항을 완료하는데 필요한 일량을 일(day) 단위로 선택하세요. -1과 0은 각각 삭제된 요구사항과 다른 요구사항으로 재정의돤 것을 의미합니다." xr:uid="{00000000-0002-0000-0100-000001000000}">
           <x14:formula1>
             <xm:f>도구!$A$2:$A$13</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C52</xm:sqref>
+          <xm:sqref>C2:C54</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -6569,8 +6871,8 @@
   </sheetPr>
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -6612,7 +6914,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -6629,7 +6931,7 @@
         <v>3</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -6646,7 +6948,7 @@
         <v>4</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -6663,7 +6965,7 @@
         <v>4</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -6680,17 +6982,25 @@
         <v>5</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="12">
         <v>6</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
+      <c r="B7" s="12">
+        <v>134</v>
+      </c>
+      <c r="C7" s="19">
+        <v>32</v>
+      </c>
+      <c r="D7" s="12">
+        <v>24</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="12">
@@ -6734,7 +7044,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -6820,7 +7130,7 @@
       <c r="E6" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6888,7 +7198,7 @@
       <c r="E4" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7001,12 +7311,12 @@
       <c r="E8" s="31"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="E2">
-    <cfRule type="expression" dxfId="25" priority="1">
+    <cfRule type="expression" dxfId="18" priority="1">
       <formula>$C2="failed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="2">
+    <cfRule type="expression" dxfId="17" priority="2">
       <formula>$C2="success"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7254,28 +7564,28 @@
       <c r="F21" s="31"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="61" t="s">
+      <c r="A23" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="B23" s="61"/>
-      <c r="C23" s="61"/>
-      <c r="D23" s="61"/>
-      <c r="E23" s="61"/>
-      <c r="F23" s="61"/>
+      <c r="B23" s="60"/>
+      <c r="C23" s="60"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="60"/>
+      <c r="F23" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A23:F23"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="A2:A21 A23">
-    <cfRule type="duplicateValues" dxfId="23" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23 A6:F21 A2:A5 C2:C5 E2:F5">
-    <cfRule type="expression" dxfId="22" priority="9">
+    <cfRule type="expression" dxfId="15" priority="9">
       <formula>$C2="failed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="10">
+    <cfRule type="expression" dxfId="14" priority="10">
       <formula>$C2="success"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7322,18 +7632,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B5">
-    <cfRule type="expression" dxfId="20" priority="3">
+    <cfRule type="expression" dxfId="13" priority="3">
       <formula>$C2="failed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="4">
+    <cfRule type="expression" dxfId="12" priority="4">
       <formula>$C2="success"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D5">
-    <cfRule type="expression" dxfId="18" priority="1">
+    <cfRule type="expression" dxfId="11" priority="1">
       <formula>$C2="failed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="2">
+    <cfRule type="expression" dxfId="10" priority="2">
       <formula>$C2="success"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7610,7 +7920,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/LJM-QA.01-프로젝트모니터링도구-2분반-8조.xlsx
+++ b/LJM-QA.01-프로젝트모니터링도구-2분반-8조.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\University\객체지향 프로그래밍Ⅱ (이종민)\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA0B293E-7727-4005-AD3D-52CC8D16A088}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C1B32A2-2FE7-4EBD-A1CE-948D7C4F0C92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="228">
   <si>
     <t>ID</t>
   </si>
@@ -48,153 +48,153 @@
   </si>
   <si>
     <t>추정치</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>우선순위</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>상</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>중</t>
   </si>
   <si>
     <t>중</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>하</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>추정치(일)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>개발 단계</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>개발단계</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>시작</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>분석</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>설계</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>구현</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>테스팅</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>완료</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>관련 유스케이스</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>파일명</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>설명</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>산출물 이름</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>설명</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>관련 기능</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>관련 비기능</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>D-01</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>D-02</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>D-03</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>관련 분석 산출물</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>관련 기능/비기능</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>관련 기능/비기능</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>테스팅 결과</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>ID</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>반복 대상</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>또는 스크럼의 User Story와 Task 개념으로 생각해도 좋음</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>기능 요구사항</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>하</t>
   </si>
   <si>
     <t>I-01</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>I-02</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>I-03</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>I-04</t>
@@ -210,227 +210,227 @@
   </si>
   <si>
     <t>요구사항 상세화 실무 가이드라인의 레벨2과 3에 기반하여 2 단계로 작성</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>SFR-100</t>
   </si>
   <si>
     <t>개발자</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>UC-101</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>SFR-501, SFR-502</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>D-01</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>* 테스트 케이스 상세한 내용은 별도의 양식을 사용하여 작성하면 됩니다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>failed</t>
   </si>
   <si>
     <t>TCS-301</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>TCS-201</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>TCS-102</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>TCS-101</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>관련 기능</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>관련 구현 산출물</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>테스팅 결과</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>테스트 케이스 이름</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>ID</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>success</t>
   </si>
   <si>
     <t>success</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>failed</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>교과목명</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>분반</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>조원</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>프로젝트</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>분반</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1분반</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>2분반</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>조 번호</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1조</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>2조</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>3조</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>4조</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>5조</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>6조</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>7조</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>8조</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>9조</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>10조</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>11조</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>12조</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>13조</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>14조</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>15조</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>UC-102</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>UC-103</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>UC-104</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>UC-105</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>반복 대상</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>추정치 총합</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>주차</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>추정치 총합</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>시작</t>
   </si>
   <si>
     <t>완료 총합(B)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>진행 총합(A)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>계획 총합(A+B-C)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>계획 총합</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>작성일</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -455,7 +455,7 @@
       </rPr>
       <t>: 현재까지 파악된 기능 요구사항의 추정치 총합</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -480,7 +480,7 @@
       </rPr>
       <t>: 반복 대상이 TRUE인 기능 요구사항의 추정치 총합</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -505,7 +505,7 @@
       </rPr>
       <t>: 개발 단계가 "완료"인 기능 요구사항의 추정치 총합</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -530,7 +530,7 @@
       </rPr>
       <t>: 진행 중이면서 완료한 기능 요구사항의 추정치 총합</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -555,143 +555,143 @@
       </rPr>
       <t>: 진행 중이거나 완료한 기능 요구사항의 추정치 총합 (EVM의 Planned Value 개념)</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>* 매 주 프로젝트 진행 상황을 알 수 있도록 추정치 총합과 계획 총합을 위의 표에 적어야 함.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>기준: 4h/day/person * 2days/week * 팀원 수</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>예) 팀원 수 4명: 4*2*4 = 32h/week --&gt; 32시간/주 * 9주 = 288시간 = 하루 8시간 기준 36일</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>진행&amp;완료 
 총합(C)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>조 번호</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>정상적인 로그인</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>비정상적인 로그인(암호 틀림)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>비정상적인 로그인(사용자ID 틀림)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>사용자 추가</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>SFR-101, SFR-102, SFR-103</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>SFR-101, SFR-102, SFR-104</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>관련 비기능(X)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>관련 설계 산출물(X)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>SFR-101, SFR-102, SFR-103, SFR-104</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Login.java</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>로그인 기능을 구현</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Login.java</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>AddUser.java</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>* 객체지향 관련 교과목에서 사용하는 기본 양식은 동일합니다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>* 기본 양식에서 제공되는 항목은 수정할 수 없습니다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>* 기본 양식의 항목에 있는 값은 적절하게 수정하여 사용하면 됩니다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>교과목명</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>객체지향프로그래밍II</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>소프트웨어설계공학</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>객체지향모델링</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>객체지향설계</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>기능 요구사항 수</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>기능 요구사항 수</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>TBD</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>기타 교과목</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>합반</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>16조</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>객체지향프로그래밍II</t>
   </si>
   <si>
     <t>ID와 P/W를 비교한다</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -723,59 +723,59 @@
       </rPr>
       <t>에 따라 학생, 교수, 직원 화면을 보여준다</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>사용자 : 학생</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>사용자 : 직원(학사 담당자)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>사용자 : 직원(수업 담당자)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>새 강좌를 등록한다</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>기존 강좌를 변경/삭제한다</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>학생에게 수강료 청구서를 발송한다</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>등록된 강좌의 정보를 확인한다</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>등록된 강좌를 신청한다 (수강 신청)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>수강한 강좌를 변경/제거한다</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>수강했던 과목의 성적을 조회한다</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>자신(학생)의 정보를 조회한다</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>자신(학생)의 정보를 변경한다</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>SFR-101</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -802,7 +802,7 @@
       </rPr>
       <t>01</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -936,7 +936,7 @@
   </si>
   <si>
     <t>사용자 : 교수</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -999,7 +999,7 @@
       </rPr>
       <t>확인한다</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1026,27 +1026,27 @@
       </rPr>
       <t>01</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>담당한 강좌의 정보를 확인한다</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>담당한 강좌의 학생의 성적을 관리한다</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>각 학생의 정보를 조회한다</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>자신(교수)의 정보를 조회한다</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>자신(교수)의 정보를 변경한다</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1319,7 +1319,7 @@
       </rPr>
       <t>.</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1348,7 +1348,7 @@
       </rPr>
       <t>00</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1377,7 +1377,7 @@
       </rPr>
       <t>00</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1406,7 +1406,7 @@
       </rPr>
       <t>00</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1435,7 +1435,7 @@
       </rPr>
       <t>로그인</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1464,7 +1464,7 @@
       </rPr>
       <t>00</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>상</t>
@@ -1474,76 +1474,73 @@
   </si>
   <si>
     <t>대학정보시스템</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>20183203 강준희</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>20183145 박상현</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>20193116 손성배</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>20183197 신종훈</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">20173149 이영훈 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>2분반</t>
   </si>
   <si>
     <t>박상현</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>21.10.06</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>21.10.13</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>분석</t>
   </si>
   <si>
     <t>21.10.19</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>SFR-103</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>직원, 학생, 교수 클래스 생성</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>21.10.26</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>학생들의 수강료를 계산한다</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>박상현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>SFR-102</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>SFR-104</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1559,30 +1556,30 @@
       </rPr>
       <t>203</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>SFR-105</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>로그인 화면을 보여준다</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>SFR-106</t>
   </si>
   <si>
     <t>회원가입</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>학생 정보를 등록/삭제한다</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>학생 정보를 조회한다</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1598,27 +1595,27 @@
       </rPr>
       <t>201</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>SFR-202</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>SFR-204</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>교수 정보를 조회한다</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>교수 정보를 등록/삭제한다</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>강좌 정보를 조회한다</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1634,7 +1631,7 @@
       </rPr>
       <t>301</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1751,45 +1748,41 @@
   </si>
   <si>
     <t>강준희</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>신종훈</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>손성배</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>이영훈</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>완료</t>
   </si>
   <si>
     <t>21.11.09</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>21.11.16</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>21.11.24</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="26">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2124,7 +2117,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -2139,73 +2132,73 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2221,70 +2214,82 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2296,23 +2301,77 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="90">
+  <dxfs count="89">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2383,82 +2442,6 @@
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3214,6 +3197,9 @@
                 <c:pt idx="5">
                   <c:v>134</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>134</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3311,6 +3297,9 @@
                   <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>32</c:v>
                 </c:pt>
               </c:numCache>
@@ -3411,6 +3400,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>56</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4531,152 +4523,152 @@
       <c r="A1" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="57" t="s">
         <v>138</v>
       </c>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="58" t="s">
         <v>187</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="58" t="s">
         <v>180</v>
       </c>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="58" t="s">
         <v>181</v>
       </c>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="55" t="s">
+      <c r="A5" s="59" t="s">
         <v>66</v>
       </c>
-      <c r="B5" s="54" t="s">
+      <c r="B5" s="58" t="s">
         <v>182</v>
       </c>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="58"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="56"/>
-      <c r="B6" s="54" t="s">
+      <c r="A6" s="60"/>
+      <c r="B6" s="58" t="s">
         <v>183</v>
       </c>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="54"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="58"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="56"/>
-      <c r="B7" s="54" t="s">
+      <c r="A7" s="60"/>
+      <c r="B7" s="58" t="s">
         <v>184</v>
       </c>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="56"/>
-      <c r="B8" s="54" t="s">
+      <c r="A8" s="60"/>
+      <c r="B8" s="58" t="s">
         <v>185</v>
       </c>
-      <c r="C8" s="54"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="54"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="58"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="56"/>
-      <c r="B9" s="54" t="s">
+      <c r="A9" s="60"/>
+      <c r="B9" s="58" t="s">
         <v>186</v>
       </c>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="58"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="57"/>
-      <c r="B10" s="54"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="54"/>
+      <c r="A10" s="61"/>
+      <c r="B10" s="58"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="58"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="52" t="s">
+      <c r="A13" s="56" t="s">
         <v>124</v>
       </c>
-      <c r="B13" s="52"/>
-      <c r="C13" s="52"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="52"/>
+      <c r="B13" s="56"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="56"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="52" t="s">
+      <c r="A14" s="56" t="s">
         <v>125</v>
       </c>
-      <c r="B14" s="52"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="52"/>
+      <c r="B14" s="56"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="52" t="s">
+      <c r="A15" s="56" t="s">
         <v>126</v>
       </c>
-      <c r="B15" s="52"/>
-      <c r="C15" s="52"/>
-      <c r="D15" s="52"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="52"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -4695,7 +4687,7 @@
     <mergeCell ref="A5:A10"/>
     <mergeCell ref="B6:G6"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
@@ -4733,8 +4725,8 @@
   <dimension ref="A1:I68"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G57" sqref="G57"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K59" sqref="K59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="17.399999999999999"/>
@@ -4820,24 +4812,22 @@
         <v>179</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>134</v>
       </c>
       <c r="G3" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="H3" s="49" t="s">
-        <v>223</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" s="49"/>
       <c r="I3" s="4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="19" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B4" s="38" t="s">
         <v>140</v>
@@ -4849,7 +4839,7 @@
         <v>5</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="F4" s="19" t="s">
         <v>134</v>
@@ -4857,9 +4847,7 @@
       <c r="G4" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="H4" s="49" t="s">
-        <v>197</v>
-      </c>
+      <c r="H4" s="49"/>
       <c r="I4" s="4" t="b">
         <v>0</v>
       </c>
@@ -4878,24 +4866,22 @@
         <v>36</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="F5" s="19" t="s">
         <v>134</v>
       </c>
       <c r="G5" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="H5" s="49" t="s">
-        <v>224</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" s="49"/>
       <c r="I5" s="4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="19" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B6" s="48" t="s">
         <v>194</v>
@@ -4907,7 +4893,7 @@
         <v>179</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F6" s="19" t="s">
         <v>134</v>
@@ -4919,10 +4905,10 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="B7" s="51" t="s">
         <v>201</v>
-      </c>
-      <c r="B7" s="51" t="s">
-        <v>202</v>
       </c>
       <c r="C7" s="19">
         <v>1</v>
@@ -4931,7 +4917,7 @@
         <v>36</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F7" s="19" t="s">
         <v>134</v>
@@ -4946,10 +4932,10 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="B8" s="51" t="s">
         <v>203</v>
-      </c>
-      <c r="B8" s="51" t="s">
-        <v>204</v>
       </c>
       <c r="C8" s="19">
         <v>1</v>
@@ -4958,17 +4944,15 @@
         <v>36</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>191</v>
+        <v>224</v>
       </c>
       <c r="F8" s="19" t="s">
         <v>134</v>
       </c>
       <c r="G8" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="H8" s="49" t="s">
-        <v>188</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" s="49"/>
       <c r="I8" s="4" t="b">
         <v>0</v>
       </c>
@@ -5002,10 +4986,10 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="19" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B10" s="37" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C10" s="19">
         <v>5</v>
@@ -5014,7 +4998,7 @@
         <v>179</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F10" s="19" t="s">
         <v>134</v>
@@ -5023,16 +5007,16 @@
         <v>1</v>
       </c>
       <c r="H10" s="49" t="s">
-        <v>221</v>
+        <v>188</v>
       </c>
       <c r="I10" s="4"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="19" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B11" s="37" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C11" s="19">
         <v>3</v>
@@ -5041,25 +5025,23 @@
         <v>5</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>191</v>
+        <v>224</v>
       </c>
       <c r="F11" s="19" t="s">
         <v>134</v>
       </c>
       <c r="G11" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="H11" s="49" t="s">
-        <v>223</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" s="49"/>
       <c r="I11" s="4"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="19" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B12" s="37" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C12" s="6">
         <v>5</v>
@@ -5068,27 +5050,25 @@
         <v>5</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="F12" s="19" t="s">
         <v>134</v>
       </c>
       <c r="G12" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>222</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" s="6"/>
       <c r="I12" s="4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="B13" s="37" t="s">
         <v>209</v>
-      </c>
-      <c r="B13" s="37" t="s">
-        <v>210</v>
       </c>
       <c r="C13" s="19">
         <v>3</v>
@@ -5097,13 +5077,13 @@
         <v>5</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>191</v>
+        <v>224</v>
       </c>
       <c r="F13" s="19" t="s">
         <v>134</v>
       </c>
       <c r="G13" s="19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" s="49"/>
       <c r="I13" s="4"/>
@@ -5137,7 +5117,7 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="19" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B15" s="37" t="s">
         <v>144</v>
@@ -5149,20 +5129,22 @@
         <v>179</v>
       </c>
       <c r="E15" s="47" t="s">
-        <v>11</v>
+        <v>217</v>
       </c>
       <c r="F15" s="19" t="s">
         <v>134</v>
       </c>
       <c r="G15" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15" s="19"/>
+        <v>1</v>
+      </c>
+      <c r="H15" s="49" t="s">
+        <v>220</v>
+      </c>
       <c r="I15" s="4"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="19" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B16" s="37" t="s">
         <v>145</v>
@@ -5174,34 +5156,36 @@
         <v>179</v>
       </c>
       <c r="E16" s="47" t="s">
-        <v>11</v>
+        <v>219</v>
       </c>
       <c r="F16" s="19" t="s">
         <v>134</v>
       </c>
       <c r="G16" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16" s="19"/>
+        <v>1</v>
+      </c>
+      <c r="H16" s="49" t="s">
+        <v>188</v>
+      </c>
       <c r="I16" s="4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="64" customFormat="1">
-      <c r="A17" s="61" t="s">
-        <v>215</v>
-      </c>
-      <c r="B17" s="62" t="s">
-        <v>212</v>
-      </c>
-      <c r="C17" s="61">
+    <row r="17" spans="1:9" s="55" customFormat="1">
+      <c r="A17" s="52" t="s">
+        <v>214</v>
+      </c>
+      <c r="B17" s="53" t="s">
+        <v>211</v>
+      </c>
+      <c r="C17" s="52">
         <v>3</v>
       </c>
-      <c r="D17" s="61" t="s">
+      <c r="D17" s="52" t="s">
         <v>5</v>
       </c>
       <c r="E17" s="47" t="s">
-        <v>11</v>
+        <v>224</v>
       </c>
       <c r="F17" s="19" t="s">
         <v>134</v>
@@ -5209,12 +5193,12 @@
       <c r="G17" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="H17" s="61"/>
-      <c r="I17" s="63"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="54"/>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="19" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B18" s="37" t="s">
         <v>146</v>
@@ -5226,22 +5210,24 @@
         <v>36</v>
       </c>
       <c r="E18" s="47" t="s">
-        <v>11</v>
+        <v>218</v>
       </c>
       <c r="F18" s="19" t="s">
         <v>134</v>
       </c>
       <c r="G18" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="H18" s="49" t="s">
+        <v>222</v>
+      </c>
       <c r="I18" s="4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="19" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B19" s="50" t="s">
         <v>196</v>
@@ -5253,15 +5239,17 @@
         <v>6</v>
       </c>
       <c r="E19" s="47" t="s">
-        <v>95</v>
+        <v>191</v>
       </c>
       <c r="F19" s="19" t="s">
         <v>134</v>
       </c>
       <c r="G19" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19" s="19"/>
+        <v>1</v>
+      </c>
+      <c r="H19" s="19" t="s">
+        <v>221</v>
+      </c>
       <c r="I19" s="4"/>
     </row>
     <row r="20" spans="1:9">
@@ -5305,7 +5293,7 @@
         <v>5</v>
       </c>
       <c r="E21" s="47" t="s">
-        <v>11</v>
+        <v>224</v>
       </c>
       <c r="F21" s="19" t="s">
         <v>134</v>
@@ -5313,7 +5301,7 @@
       <c r="G21" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="H21" s="6"/>
+      <c r="H21" s="49"/>
       <c r="I21" s="4" t="b">
         <v>0</v>
       </c>
@@ -5332,7 +5320,7 @@
         <v>179</v>
       </c>
       <c r="E22" s="47" t="s">
-        <v>11</v>
+        <v>224</v>
       </c>
       <c r="F22" s="19" t="s">
         <v>134</v>
@@ -5340,7 +5328,7 @@
       <c r="G22" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="H22" s="6"/>
+      <c r="H22" s="49"/>
       <c r="I22" s="4" t="b">
         <v>0</v>
       </c>
@@ -5386,15 +5374,17 @@
         <v>36</v>
       </c>
       <c r="E24" s="47" t="s">
-        <v>11</v>
+        <v>217</v>
       </c>
       <c r="F24" s="19" t="s">
         <v>134</v>
       </c>
       <c r="G24" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>222</v>
+      </c>
       <c r="I24" s="4" t="b">
         <v>0</v>
       </c>
@@ -5413,15 +5403,17 @@
         <v>5</v>
       </c>
       <c r="E25" s="47" t="s">
-        <v>11</v>
+        <v>217</v>
       </c>
       <c r="F25" s="19" t="s">
         <v>134</v>
       </c>
       <c r="G25" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>188</v>
+      </c>
       <c r="I25" s="4" t="b">
         <v>0</v>
       </c>
@@ -5440,15 +5432,17 @@
         <v>179</v>
       </c>
       <c r="E26" s="47" t="s">
-        <v>11</v>
+        <v>191</v>
       </c>
       <c r="F26" s="19" t="s">
         <v>134</v>
       </c>
       <c r="G26" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>223</v>
+      </c>
       <c r="I26" s="4" t="b">
         <v>0</v>
       </c>
@@ -5896,14 +5890,14 @@
       </c>
       <c r="E55" s="20">
         <f>SUMIF(E2:E54, "완료", C2:C54)</f>
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="F55" s="21" t="s">
         <v>97</v>
       </c>
       <c r="G55" s="22">
         <f>SUMIF(G2:G54,TRUE,C2:C54)</f>
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="31.2" customHeight="1">
@@ -5934,34 +5928,34 @@
       </c>
       <c r="G57" s="25">
         <f>G55+E55-E56</f>
-        <v>24</v>
+        <v>56</v>
       </c>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="58" t="s">
+      <c r="A58" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="B58" s="58"/>
-      <c r="C58" s="58"/>
-      <c r="D58" s="58"/>
-      <c r="E58" s="58"/>
-      <c r="F58" s="58"/>
-      <c r="G58" s="58"/>
-      <c r="H58" s="58"/>
-      <c r="I58" s="58"/>
+      <c r="B58" s="62"/>
+      <c r="C58" s="62"/>
+      <c r="D58" s="62"/>
+      <c r="E58" s="62"/>
+      <c r="F58" s="62"/>
+      <c r="G58" s="62"/>
+      <c r="H58" s="62"/>
+      <c r="I58" s="62"/>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="59" t="s">
+      <c r="A59" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="B59" s="59"/>
-      <c r="C59" s="59"/>
-      <c r="D59" s="59"/>
-      <c r="E59" s="59"/>
-      <c r="F59" s="59"/>
-      <c r="G59" s="59"/>
-      <c r="H59" s="59"/>
-      <c r="I59" s="59"/>
+      <c r="B59" s="63"/>
+      <c r="C59" s="63"/>
+      <c r="D59" s="63"/>
+      <c r="E59" s="63"/>
+      <c r="F59" s="63"/>
+      <c r="G59" s="63"/>
+      <c r="H59" s="63"/>
+      <c r="I59" s="63"/>
     </row>
     <row r="61" spans="1:9">
       <c r="B61" s="17" t="s">
@@ -6007,36 +6001,36 @@
     <mergeCell ref="A58:I58"/>
     <mergeCell ref="A59:I59"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="A12:D12 C10:D11 B21:I26 A28:I54 A2:I3 B16:D18 C19:D19 A6 A4:F5 H4:I5 G3:G5 E3:E5 C6:H6 A10:A12 A15:A19 E10:I12 E15:I19">
-    <cfRule type="expression" dxfId="89" priority="143">
+  <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="A12:D12 C10:D11 A28:I54 A2:I3 B16:D18 C19:D19 A6 A4:F5 H4:I5 G3:G5 E3:E5 C6:H6 A10:A12 A15:A19 E10:I12 E15:I19 B21:I26">
+    <cfRule type="expression" dxfId="88" priority="143">
       <formula>$C2=""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="144">
+    <cfRule type="expression" dxfId="87" priority="144">
       <formula>$C2=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="87" priority="145">
+    <cfRule type="expression" dxfId="86" priority="145">
       <formula>$C2=-1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I21:I26 I28:I54 I2:I6 I10:I12 I15:I19">
-    <cfRule type="cellIs" dxfId="86" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="126" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9:I9">
-    <cfRule type="expression" dxfId="85" priority="116">
+    <cfRule type="expression" dxfId="84" priority="116">
       <formula>$C9=""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="117">
+    <cfRule type="expression" dxfId="83" priority="117">
       <formula>$C9=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="83" priority="118">
+    <cfRule type="expression" dxfId="82" priority="118">
       <formula>$C9=-1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="82" priority="115" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="115" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6055,10 +6049,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="duplicateValues" dxfId="81" priority="120"/>
+    <cfRule type="duplicateValues" dxfId="80" priority="120"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9">
-    <cfRule type="cellIs" dxfId="80" priority="121" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="121" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
     <cfRule type="dataBar" priority="122">
@@ -6075,29 +6069,29 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10:B11">
-    <cfRule type="expression" dxfId="79" priority="313">
+    <cfRule type="expression" dxfId="78" priority="313">
       <formula>#REF!=""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="314">
+    <cfRule type="expression" dxfId="77" priority="314">
       <formula>#REF!=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="77" priority="315">
+    <cfRule type="expression" dxfId="76" priority="315">
       <formula>#REF!=-1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:D14 F14:I14">
-    <cfRule type="expression" dxfId="76" priority="108">
+    <cfRule type="expression" dxfId="75" priority="108">
       <formula>$C14=""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="109">
+    <cfRule type="expression" dxfId="74" priority="109">
       <formula>$C14=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="110">
+    <cfRule type="expression" dxfId="73" priority="110">
       <formula>$C14=-1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14">
-    <cfRule type="cellIs" dxfId="73" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="107" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6116,10 +6110,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="72" priority="112"/>
+    <cfRule type="duplicateValues" dxfId="71" priority="112"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14">
-    <cfRule type="cellIs" dxfId="71" priority="113" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="113" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
     <cfRule type="dataBar" priority="114">
@@ -6136,40 +6130,40 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15:D15">
-    <cfRule type="expression" dxfId="70" priority="97">
+    <cfRule type="expression" dxfId="69" priority="97">
       <formula>$C15=""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="98">
+    <cfRule type="expression" dxfId="68" priority="98">
       <formula>$C15=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="99">
+    <cfRule type="expression" dxfId="67" priority="99">
       <formula>$C15=-1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15">
-    <cfRule type="expression" dxfId="67" priority="104">
+    <cfRule type="expression" dxfId="66" priority="104">
       <formula>#REF!=""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="105">
+    <cfRule type="expression" dxfId="65" priority="105">
       <formula>#REF!=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="65" priority="106">
+    <cfRule type="expression" dxfId="64" priority="106">
       <formula>#REF!=-1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:D20 F20:I20">
-    <cfRule type="expression" dxfId="64" priority="89">
+    <cfRule type="expression" dxfId="63" priority="89">
       <formula>$C20=""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="90">
+    <cfRule type="expression" dxfId="62" priority="90">
       <formula>$C20=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="91">
+    <cfRule type="expression" dxfId="61" priority="91">
       <formula>$C20=-1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20">
-    <cfRule type="cellIs" dxfId="61" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="88" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6188,10 +6182,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20">
-    <cfRule type="duplicateValues" dxfId="60" priority="93"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="93"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20">
-    <cfRule type="cellIs" dxfId="59" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="94" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
     <cfRule type="dataBar" priority="95">
@@ -6208,32 +6202,32 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:A26">
-    <cfRule type="expression" dxfId="58" priority="84">
+    <cfRule type="expression" dxfId="57" priority="84">
       <formula>$C21=""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="85">
+    <cfRule type="expression" dxfId="56" priority="85">
       <formula>$C21=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="86">
+    <cfRule type="expression" dxfId="55" priority="86">
       <formula>$C21=-1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:A26">
-    <cfRule type="duplicateValues" dxfId="55" priority="87"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="87"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:D27 F27:I27">
-    <cfRule type="expression" dxfId="54" priority="77">
+    <cfRule type="expression" dxfId="53" priority="77">
       <formula>$C27=""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="78">
+    <cfRule type="expression" dxfId="52" priority="78">
       <formula>$C27=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="79">
+    <cfRule type="expression" dxfId="51" priority="79">
       <formula>$C27=-1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I27">
-    <cfRule type="cellIs" dxfId="51" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="76" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6252,10 +6246,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27">
-    <cfRule type="duplicateValues" dxfId="50" priority="81"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="81"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27">
-    <cfRule type="cellIs" dxfId="49" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="82" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
     <cfRule type="dataBar" priority="83">
@@ -6272,13 +6266,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27 E20 E14">
-    <cfRule type="expression" dxfId="48" priority="70">
+    <cfRule type="expression" dxfId="47" priority="70">
       <formula>$C14=""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="47" priority="71">
+    <cfRule type="expression" dxfId="46" priority="71">
       <formula>$C14=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="72">
+    <cfRule type="expression" dxfId="45" priority="72">
       <formula>$C14=-1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6311,10 +6305,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:A54 A10:A12 A2:A6">
-    <cfRule type="duplicateValues" dxfId="45" priority="407"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="407"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G21:G26 G28:G54 G2:G6 G10:G12">
-    <cfRule type="cellIs" dxfId="44" priority="411" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="411" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
     <cfRule type="dataBar" priority="412">
@@ -6331,26 +6325,26 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:B7 D7:I7 A8">
-    <cfRule type="expression" dxfId="43" priority="44">
+    <cfRule type="expression" dxfId="42" priority="44">
       <formula>$C7=""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="45">
+    <cfRule type="expression" dxfId="41" priority="45">
       <formula>$C7=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="46">
+    <cfRule type="expression" dxfId="40" priority="46">
       <formula>$C7=-1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="40" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="43" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:A8">
-    <cfRule type="duplicateValues" dxfId="39" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule type="cellIs" dxfId="38" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="49" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
     <cfRule type="dataBar" priority="50">
@@ -6367,13 +6361,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7">
-    <cfRule type="expression" dxfId="37" priority="31">
+    <cfRule type="expression" dxfId="36" priority="31">
       <formula>$C7=""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="32">
+    <cfRule type="expression" dxfId="35" priority="32">
       <formula>$C7=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="33">
+    <cfRule type="expression" dxfId="34" priority="33">
       <formula>$C7=-1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6392,18 +6386,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:I8">
-    <cfRule type="expression" dxfId="34" priority="24">
+    <cfRule type="expression" dxfId="33" priority="24">
       <formula>$C8=""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="25">
+    <cfRule type="expression" dxfId="32" priority="25">
       <formula>$C8=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="26">
+    <cfRule type="expression" dxfId="31" priority="26">
       <formula>$C8=-1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="31" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="23" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6422,7 +6416,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8">
-    <cfRule type="cellIs" dxfId="30" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="29" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
     <cfRule type="dataBar" priority="30">
@@ -6453,7 +6447,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15:G19">
-    <cfRule type="cellIs" dxfId="29" priority="422" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="422" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
     <cfRule type="dataBar" priority="423">
@@ -6470,32 +6464,32 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:A19">
-    <cfRule type="duplicateValues" dxfId="28" priority="424"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="424"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13 C13:D13 H13:I13">
-    <cfRule type="expression" dxfId="27" priority="13">
+    <cfRule type="expression" dxfId="26" priority="13">
       <formula>$C13=""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="14">
+    <cfRule type="expression" dxfId="25" priority="14">
       <formula>$C13=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="15">
+    <cfRule type="expression" dxfId="24" priority="15">
       <formula>$C13=-1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13">
-    <cfRule type="cellIs" dxfId="24" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="12" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13">
-    <cfRule type="expression" dxfId="23" priority="16">
+    <cfRule type="expression" dxfId="22" priority="16">
       <formula>#REF!=""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="17">
+    <cfRule type="expression" dxfId="21" priority="17">
       <formula>#REF!=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="18">
+    <cfRule type="expression" dxfId="20" priority="18">
       <formula>#REF!=-1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6514,32 +6508,32 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="20" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="expression" dxfId="9" priority="9">
+    <cfRule type="expression" dxfId="18" priority="9">
       <formula>$C13=""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="10">
+    <cfRule type="expression" dxfId="17" priority="10">
       <formula>$C13=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="11">
+    <cfRule type="expression" dxfId="16" priority="11">
       <formula>$C13=-1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13">
-    <cfRule type="expression" dxfId="6" priority="6">
+    <cfRule type="expression" dxfId="15" priority="6">
       <formula>$C13=""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="7">
+    <cfRule type="expression" dxfId="14" priority="7">
       <formula>$C13=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="8">
+    <cfRule type="expression" dxfId="13" priority="8">
       <formula>$C13=-1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11 G13">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="4" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
     <cfRule type="dataBar" priority="5">
@@ -6556,13 +6550,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="11" priority="1">
       <formula>$C13=""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="10" priority="2">
       <formula>$C13=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="3">
+    <cfRule type="expression" dxfId="9" priority="3">
       <formula>$C13=-1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6872,7 +6866,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -6982,7 +6976,7 @@
         <v>5</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -6999,17 +6993,25 @@
         <v>24</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="12">
         <v>7</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
+      <c r="B8" s="12">
+        <v>134</v>
+      </c>
+      <c r="C8" s="19">
+        <v>32</v>
+      </c>
+      <c r="D8" s="12">
+        <v>56</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="12">
@@ -7044,7 +7046,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -7130,7 +7132,7 @@
       <c r="E6" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7198,7 +7200,7 @@
       <c r="E4" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7311,12 +7313,12 @@
       <c r="E8" s="31"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="E2">
-    <cfRule type="expression" dxfId="18" priority="1">
+    <cfRule type="expression" dxfId="8" priority="1">
       <formula>$C2="failed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="2">
+    <cfRule type="expression" dxfId="7" priority="2">
       <formula>$C2="success"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7564,28 +7566,28 @@
       <c r="F21" s="31"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="60" t="s">
+      <c r="A23" s="64" t="s">
         <v>50</v>
       </c>
-      <c r="B23" s="60"/>
-      <c r="C23" s="60"/>
-      <c r="D23" s="60"/>
-      <c r="E23" s="60"/>
-      <c r="F23" s="60"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="64"/>
+      <c r="D23" s="64"/>
+      <c r="E23" s="64"/>
+      <c r="F23" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A23:F23"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A2:A21 A23">
-    <cfRule type="duplicateValues" dxfId="16" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23 A6:F21 A2:A5 C2:C5 E2:F5">
-    <cfRule type="expression" dxfId="15" priority="9">
+    <cfRule type="expression" dxfId="5" priority="9">
       <formula>$C2="failed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="10">
+    <cfRule type="expression" dxfId="4" priority="10">
       <formula>$C2="success"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7632,18 +7634,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B5">
-    <cfRule type="expression" dxfId="13" priority="3">
+    <cfRule type="expression" dxfId="3" priority="3">
       <formula>$C2="failed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="4">
+    <cfRule type="expression" dxfId="2" priority="4">
       <formula>$C2="success"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D5">
-    <cfRule type="expression" dxfId="11" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>$C2="failed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="2">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>$C2="success"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7920,7 +7922,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
